--- a/REH_modcarbs_corrected_data.xlsx
+++ b/REH_modcarbs_corrected_data.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
   <si>
     <t xml:space="preserve">Run</t>
   </si>
@@ -69,33 +69,39 @@
     <t xml:space="preserve">B19.5</t>
   </si>
   <si>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">too small, high stdev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B50_spot1_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B50_spot1_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B50_spot2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B50_whole</t>
+  </si>
+  <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">22997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B50_spot1_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B50_spot1_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B50_spot2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B50_whole</t>
-  </si>
-  <si>
     <t xml:space="preserve">23001</t>
   </si>
   <si>
@@ -198,6 +204,9 @@
     <t xml:space="preserve">S100_whole</t>
   </si>
   <si>
+    <t xml:space="preserve">Atm. in the vial</t>
+  </si>
+  <si>
     <t xml:space="preserve">23026</t>
   </si>
   <si>
@@ -288,9 +297,6 @@
     <t xml:space="preserve">lindrift</t>
   </si>
   <si>
-    <t xml:space="preserve">yes</t>
-  </si>
-  <si>
     <t xml:space="preserve">Atm. in the vial, high stdev</t>
   </si>
   <si>
@@ -342,6 +348,9 @@
     <t xml:space="preserve">lin.std</t>
   </si>
   <si>
+    <t xml:space="preserve">too small</t>
+  </si>
+  <si>
     <t xml:space="preserve">22987__IAEA-C2.dxf</t>
   </si>
   <si>
@@ -394,9 +403,6 @@
   </si>
   <si>
     <t xml:space="preserve">22995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atm. in the vial</t>
   </si>
   <si>
     <t xml:space="preserve">22996__B19_5.dxf</t>
@@ -1029,7 +1035,7 @@
         <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -1037,10 +1043,10 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" t="n">
         <v>115</v>
@@ -1064,7 +1070,7 @@
         <v>14</v>
       </c>
       <c r="K3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -1072,10 +1078,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" t="n">
         <v>136</v>
@@ -1099,7 +1105,7 @@
         <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -1107,10 +1113,10 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" t="n">
         <v>120</v>
@@ -1134,7 +1140,7 @@
         <v>14</v>
       </c>
       <c r="K5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -1142,10 +1148,10 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="n">
         <v>121</v>
@@ -1166,10 +1172,10 @@
         <v>40.9525272573645</v>
       </c>
       <c r="J6" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="K6" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
@@ -1177,10 +1183,10 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="n">
         <v>117</v>
@@ -1201,10 +1207,10 @@
         <v>56.0914773601481</v>
       </c>
       <c r="J7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="K7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8">
@@ -1212,10 +1218,10 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D8" t="n">
         <v>119</v>
@@ -1239,7 +1245,7 @@
         <v>14</v>
       </c>
       <c r="K8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -1247,10 +1253,10 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D9" t="n">
         <v>120</v>
@@ -1274,7 +1280,7 @@
         <v>14</v>
       </c>
       <c r="K9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -1282,10 +1288,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D10" t="n">
         <v>118</v>
@@ -1309,7 +1315,7 @@
         <v>14</v>
       </c>
       <c r="K10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -1317,10 +1323,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D11" t="n">
         <v>110</v>
@@ -1341,10 +1347,10 @@
         <v>75.1624056418304</v>
       </c>
       <c r="J11" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="K11" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12">
@@ -1352,10 +1358,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D12" t="n">
         <v>115</v>
@@ -1376,10 +1382,10 @@
         <v>29.1502503268499</v>
       </c>
       <c r="J12" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="K12" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13">
@@ -1387,10 +1393,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D13" t="n">
         <v>113</v>
@@ -1414,7 +1420,7 @@
         <v>14</v>
       </c>
       <c r="K13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -1422,10 +1428,10 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D14" t="n">
         <v>118</v>
@@ -1449,7 +1455,7 @@
         <v>14</v>
       </c>
       <c r="K14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -1457,10 +1463,10 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D15" t="n">
         <v>110</v>
@@ -1481,10 +1487,10 @@
         <v>33.5839364319092</v>
       </c>
       <c r="J15" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="K15" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16">
@@ -1492,10 +1498,10 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D16" t="n">
         <v>118</v>
@@ -1519,7 +1525,7 @@
         <v>14</v>
       </c>
       <c r="K16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -1527,10 +1533,10 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D17" t="n">
         <v>119</v>
@@ -1554,7 +1560,7 @@
         <v>14</v>
       </c>
       <c r="K17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -1562,10 +1568,10 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D18" t="n">
         <v>105</v>
@@ -1589,7 +1595,7 @@
         <v>14</v>
       </c>
       <c r="K18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
@@ -1597,10 +1603,10 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D19" t="n">
         <v>104</v>
@@ -1621,10 +1627,10 @@
         <v>26.7516482155729</v>
       </c>
       <c r="J19" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="K19" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20">
@@ -1632,10 +1638,10 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D20" t="n">
         <v>120</v>
@@ -1656,10 +1662,10 @@
         <v>28.4493769277892</v>
       </c>
       <c r="J20" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="K20" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21">
@@ -1667,10 +1673,10 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D21" t="n">
         <v>107</v>
@@ -1694,7 +1700,7 @@
         <v>14</v>
       </c>
       <c r="K21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
@@ -1702,10 +1708,10 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D22" t="n">
         <v>104</v>
@@ -1729,7 +1735,7 @@
         <v>14</v>
       </c>
       <c r="K22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
@@ -1737,10 +1743,10 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D23" t="n">
         <v>110</v>
@@ -1764,7 +1770,7 @@
         <v>14</v>
       </c>
       <c r="K23" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24">
@@ -1772,10 +1778,10 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D24" t="n">
         <v>112</v>
@@ -1799,7 +1805,7 @@
         <v>14</v>
       </c>
       <c r="K24" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1818,10 +1824,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1833,31 +1839,31 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1" t="s">
         <v>66</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>67</v>
       </c>
-      <c r="J1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L1" t="s">
-        <v>63</v>
-      </c>
-      <c r="M1" t="s">
-        <v>64</v>
-      </c>
       <c r="N1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O1" t="s">
         <v>9</v>
@@ -1866,40 +1872,40 @@
         <v>10</v>
       </c>
       <c r="Q1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="R1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="S1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="T1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="U1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="V1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="W1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="X1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Y1" t="s">
         <v>4</v>
       </c>
       <c r="Z1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AA1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AB1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2">
@@ -1907,19 +1913,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E2" t="n">
         <v>52</v>
       </c>
       <c r="F2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G2" t="n">
         <v>10</v>
@@ -1946,10 +1952,10 @@
         <v>0.11823964696953</v>
       </c>
       <c r="O2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="P2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q2" t="n">
         <v>-6.61565039173032</v>
@@ -1993,19 +1999,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E3" t="n">
         <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G3" t="n">
         <v>10</v>
@@ -2032,10 +2038,10 @@
         <v>0.069479744887368</v>
       </c>
       <c r="O3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="P3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q3" t="n">
         <v>-6.45679811893664</v>
@@ -2079,19 +2085,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E4" t="n">
         <v>117</v>
       </c>
       <c r="F4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G4" t="n">
         <v>10</v>
@@ -2118,10 +2124,10 @@
         <v>0.058657813968755</v>
       </c>
       <c r="O4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="P4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q4" t="n">
         <v>-6.44151203007266</v>
@@ -2165,19 +2171,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E5" t="n">
         <v>151</v>
       </c>
       <c r="F5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G5" t="n">
         <v>10</v>
@@ -2204,10 +2210,10 @@
         <v>0.0416842918117132</v>
       </c>
       <c r="O5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="P5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q5" t="n">
         <v>-6.24019040280271</v>
@@ -2251,19 +2257,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E6" t="n">
         <v>205</v>
       </c>
       <c r="F6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G6" t="n">
         <v>10</v>
@@ -2290,10 +2296,10 @@
         <v>0.029770403940384</v>
       </c>
       <c r="O6" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="P6" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q6" t="n">
         <v>-6.25000659234659</v>
@@ -2348,10 +2354,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2363,31 +2369,31 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1" t="s">
         <v>66</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>67</v>
       </c>
-      <c r="J1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L1" t="s">
-        <v>63</v>
-      </c>
-      <c r="M1" t="s">
-        <v>64</v>
-      </c>
       <c r="N1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O1" t="s">
         <v>9</v>
@@ -2396,43 +2402,43 @@
         <v>10</v>
       </c>
       <c r="Q1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="R1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="S1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="T1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="U1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="V1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="W1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="X1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Y1" t="s">
         <v>4</v>
       </c>
       <c r="Z1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AA1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AB1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AC1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2">
@@ -2440,19 +2446,19 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E2" t="n">
         <v>112</v>
       </c>
       <c r="F2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G2" t="n">
         <v>10</v>
@@ -2479,10 +2485,10 @@
         <v>0.0484856644327174</v>
       </c>
       <c r="O2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="P2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q2" t="n">
         <v>-6.61539875899423</v>
@@ -2529,19 +2535,19 @@
         <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E3" t="n">
         <v>108</v>
       </c>
       <c r="F3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G3" t="n">
         <v>10</v>
@@ -2568,10 +2574,10 @@
         <v>0.0497811794974226</v>
       </c>
       <c r="O3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="P3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q3" t="n">
         <v>-8.3778331104737</v>
@@ -2629,51 +2635,51 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="I1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="N1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B2" t="n">
         <v>-6.19</v>
@@ -2703,10 +2709,10 @@
         <v>0.0489494803182344</v>
       </c>
       <c r="K2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M2" t="n">
         <v>-9.51865873788451</v>
@@ -2717,7 +2723,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B3" t="n">
         <v>-9.65</v>
@@ -2747,10 +2753,10 @@
         <v>0.448826231705305</v>
       </c>
       <c r="K3" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M3" t="n">
         <v>-6.63321988335722</v>
@@ -2761,7 +2767,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B4" t="n">
         <v>-23.2</v>
@@ -2791,10 +2797,10 @@
         <v>0.600440017078775</v>
       </c>
       <c r="K4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M4" t="n">
         <v>-23.2082372670235</v>
@@ -2805,7 +2811,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B5"/>
       <c r="C5" t="n">
@@ -2833,10 +2839,10 @@
         <v>0.736173369720873</v>
       </c>
       <c r="K5" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L5" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M5" t="n">
         <v>-16.2843028786738</v>
@@ -2861,10 +2867,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2876,31 +2882,31 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1" t="s">
         <v>66</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>67</v>
       </c>
-      <c r="J1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L1" t="s">
-        <v>63</v>
-      </c>
-      <c r="M1" t="s">
-        <v>64</v>
-      </c>
       <c r="N1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O1" t="s">
         <v>9</v>
@@ -2909,43 +2915,43 @@
         <v>10</v>
       </c>
       <c r="Q1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="R1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="S1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="T1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="U1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="V1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="W1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="X1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Y1" t="s">
         <v>4</v>
       </c>
       <c r="Z1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AA1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AB1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AC1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AD1" t="s">
         <v>6</v>
@@ -2956,19 +2962,19 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E2" t="n">
         <v>107</v>
       </c>
       <c r="F2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G2" t="n">
         <v>10</v>
@@ -2995,10 +3001,10 @@
         <v>0.0723214613137758</v>
       </c>
       <c r="O2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="P2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q2" t="n">
         <v>-13.336482427105</v>
@@ -3048,19 +3054,19 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E3" t="n">
         <v>117</v>
       </c>
       <c r="F3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G3" t="n">
         <v>10</v>
@@ -3087,10 +3093,10 @@
         <v>0.0608528491927163</v>
       </c>
       <c r="O3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="P3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q3" t="n">
         <v>-20.6145743758875</v>
@@ -3140,19 +3146,19 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E4" t="n">
         <v>52</v>
       </c>
       <c r="F4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G4" t="n">
         <v>10</v>
@@ -3179,10 +3185,10 @@
         <v>0.11823964696953</v>
       </c>
       <c r="O4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="P4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q4" t="n">
         <v>-6.61565039173032</v>
@@ -3232,19 +3238,19 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E5" t="n">
         <v>88</v>
       </c>
       <c r="F5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G5" t="n">
         <v>10</v>
@@ -3271,10 +3277,10 @@
         <v>0.069479744887368</v>
       </c>
       <c r="O5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="P5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q5" t="n">
         <v>-6.45679811893664</v>
@@ -3324,19 +3330,19 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E6" t="n">
         <v>117</v>
       </c>
       <c r="F6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G6" t="n">
         <v>10</v>
@@ -3363,10 +3369,10 @@
         <v>0.058657813968755</v>
       </c>
       <c r="O6" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="P6" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q6" t="n">
         <v>-6.44151203007266</v>
@@ -3416,19 +3422,19 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E7" t="n">
         <v>151</v>
       </c>
       <c r="F7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G7" t="n">
         <v>10</v>
@@ -3455,10 +3461,10 @@
         <v>0.0416842918117132</v>
       </c>
       <c r="O7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="P7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q7" t="n">
         <v>-6.24019040280271</v>
@@ -3508,19 +3514,19 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C8" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D8" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E8" t="n">
         <v>205</v>
       </c>
       <c r="F8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G8" t="n">
         <v>10</v>
@@ -3547,10 +3553,10 @@
         <v>0.029770403940384</v>
       </c>
       <c r="O8" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="P8" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q8" t="n">
         <v>-6.25000659234659</v>
@@ -3600,19 +3606,19 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C9" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D9" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E9" t="n">
         <v>112</v>
       </c>
       <c r="F9" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G9" t="n">
         <v>10</v>
@@ -3639,10 +3645,10 @@
         <v>0.0484856644327174</v>
       </c>
       <c r="O9" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="P9" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q9" t="n">
         <v>-6.61539875899423</v>
@@ -3692,19 +3698,19 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C10" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E10" t="n">
         <v>118</v>
       </c>
       <c r="F10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G10" t="n">
         <v>10</v>
@@ -3731,10 +3737,10 @@
         <v>0.0562506297474913</v>
       </c>
       <c r="O10" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="P10" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q10" t="n">
         <v>-14.780661074361</v>
@@ -3784,19 +3790,19 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E11" t="n">
         <v>106</v>
       </c>
       <c r="F11" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G11" t="n">
         <v>10</v>
@@ -3823,10 +3829,10 @@
         <v>0.0522644170937882</v>
       </c>
       <c r="O11" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="P11" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q11" t="n">
         <v>-21.9366416451239</v>
@@ -3876,19 +3882,19 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C12" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E12" t="n">
         <v>106</v>
       </c>
       <c r="F12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G12" t="n">
         <v>10</v>
@@ -3915,10 +3921,10 @@
         <v>0.058601670559922</v>
       </c>
       <c r="O12" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="P12" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q12" t="n">
         <v>-21.3640071376843</v>
@@ -3968,19 +3974,19 @@
         <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E13" t="n">
         <v>107</v>
       </c>
       <c r="F13" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G13" t="n">
         <v>10</v>
@@ -4007,10 +4013,10 @@
         <v>0.053023947217282</v>
       </c>
       <c r="O13" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="P13" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q13" t="n">
         <v>-4.75673556250061</v>
@@ -4060,19 +4066,19 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C14" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D14" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E14" t="n">
         <v>113</v>
       </c>
       <c r="F14" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G14" t="n">
         <v>10</v>
@@ -4099,10 +4105,10 @@
         <v>0.0578128615936899</v>
       </c>
       <c r="O14" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="P14" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q14" t="n">
         <v>-13.9638484964048</v>
@@ -4152,19 +4158,19 @@
         <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C15" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D15" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E15" t="n">
         <v>108</v>
       </c>
       <c r="F15" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G15" t="n">
         <v>10</v>
@@ -4191,10 +4197,10 @@
         <v>0.0497811794974226</v>
       </c>
       <c r="O15" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="P15" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q15" t="n">
         <v>-8.3778331104737</v>
@@ -4244,19 +4250,19 @@
         <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C16" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D16" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E16" t="n">
         <v>112</v>
       </c>
       <c r="F16" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G16" t="n">
         <v>10</v>
@@ -4283,10 +4289,10 @@
         <v>0.0676721462830187</v>
       </c>
       <c r="O16" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="P16" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q16" t="n">
         <v>-14.8477886143131</v>
@@ -4336,19 +4342,19 @@
         <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C17" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D17" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E17" t="n">
         <v>120</v>
       </c>
       <c r="F17" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G17" t="n">
         <v>10</v>
@@ -4375,10 +4381,10 @@
         <v>0.0559790913028057</v>
       </c>
       <c r="O17" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="P17" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q17" t="n">
         <v>-21.751079039265</v>
@@ -4428,19 +4434,19 @@
         <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D18" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E18" t="n">
         <v>110</v>
       </c>
       <c r="F18" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G18" t="n">
         <v>10</v>
@@ -4467,10 +4473,10 @@
         <v>0.0483262886911655</v>
       </c>
       <c r="O18" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="P18" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q18" t="n">
         <v>-5.37085836992523</v>
@@ -4531,10 +4537,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -4546,31 +4552,31 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1" t="s">
         <v>66</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>67</v>
       </c>
-      <c r="J1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L1" t="s">
-        <v>63</v>
-      </c>
-      <c r="M1" t="s">
-        <v>64</v>
-      </c>
       <c r="N1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O1" t="s">
         <v>9</v>
@@ -4579,7 +4585,7 @@
         <v>10</v>
       </c>
       <c r="Q1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2">
@@ -4587,19 +4593,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E2" t="n">
         <v>109</v>
       </c>
       <c r="F2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G2" t="n">
         <v>21</v>
@@ -4626,10 +4632,10 @@
         <v>0.14227089849453</v>
       </c>
       <c r="O2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="P2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q2" t="n">
         <v>25194.0900337314</v>
@@ -4640,19 +4646,19 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E3" t="n">
         <v>109</v>
       </c>
       <c r="F3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G3" t="n">
         <v>21</v>
@@ -4679,10 +4685,10 @@
         <v>0.182779639616628</v>
       </c>
       <c r="O3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="P3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q3" t="n">
         <v>22010.8404471316</v>
@@ -4693,19 +4699,19 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E4" t="n">
         <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G4" t="n">
         <v>10</v>
@@ -4732,10 +4738,10 @@
         <v>0.224390782765381</v>
       </c>
       <c r="O4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="P4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q4" t="n">
         <v>-6.69889068411478</v>
@@ -4746,19 +4752,19 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E5" t="n">
         <v>116</v>
       </c>
       <c r="F5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G5" t="n">
         <v>10</v>
@@ -4785,10 +4791,10 @@
         <v>0.409544208407258</v>
       </c>
       <c r="O5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="P5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q5" t="n">
         <v>-10.8152405977371</v>
@@ -4799,7 +4805,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -4811,7 +4817,7 @@
         <v>117</v>
       </c>
       <c r="F6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G6" t="n">
         <v>10</v>
@@ -4838,10 +4844,10 @@
         <v>0.642520631071262</v>
       </c>
       <c r="O6" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="P6" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q6" t="n">
         <v>-14.9438803386377</v>
@@ -4852,19 +4858,19 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7" t="n">
         <v>115</v>
       </c>
       <c r="F7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G7" t="n">
         <v>10</v>
@@ -4891,10 +4897,10 @@
         <v>1.28662124305195</v>
       </c>
       <c r="O7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="P7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q7" t="n">
         <v>-17.3519554369898</v>
@@ -4905,19 +4911,19 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8" t="n">
         <v>136</v>
       </c>
       <c r="F8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G8" t="n">
         <v>10</v>
@@ -4944,10 +4950,10 @@
         <v>1.77775360821804</v>
       </c>
       <c r="O8" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="P8" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q8" t="n">
         <v>-22.6727285055154</v>
@@ -4958,19 +4964,19 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9" t="n">
         <v>120</v>
       </c>
       <c r="F9" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G9" t="n">
         <v>10</v>
@@ -4997,10 +5003,10 @@
         <v>2.39988395308312</v>
       </c>
       <c r="O9" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="P9" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q9" t="n">
         <v>-23.1618528691431</v>
@@ -5011,19 +5017,19 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E10" t="n">
         <v>119</v>
       </c>
       <c r="F10" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G10" t="n">
         <v>10</v>
@@ -5050,10 +5056,10 @@
         <v>0.880826127382131</v>
       </c>
       <c r="O10" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="P10" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q10" t="n">
         <v>-15.3657864169117</v>
@@ -5064,19 +5070,19 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E11" t="n">
         <v>120</v>
       </c>
       <c r="F11" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G11" t="n">
         <v>10</v>
@@ -5103,10 +5109,10 @@
         <v>1.04465222166391</v>
       </c>
       <c r="O11" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="P11" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q11" t="n">
         <v>-18.7323892717368</v>
@@ -5117,19 +5123,19 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E12" t="n">
         <v>118</v>
       </c>
       <c r="F12" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G12" t="n">
         <v>10</v>
@@ -5156,10 +5162,10 @@
         <v>1.63566588021416</v>
       </c>
       <c r="O12" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="P12" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q12" t="n">
         <v>-18.6378043900347</v>
@@ -5170,19 +5176,19 @@
         <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E13" t="n">
         <v>113</v>
       </c>
       <c r="F13" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G13" t="n">
         <v>10</v>
@@ -5209,10 +5215,10 @@
         <v>0.85402152784676</v>
       </c>
       <c r="O13" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="P13" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q13" t="n">
         <v>-14.8678674334722</v>
@@ -5223,19 +5229,19 @@
         <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E14" t="n">
         <v>118</v>
       </c>
       <c r="F14" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G14" t="n">
         <v>10</v>
@@ -5262,10 +5268,10 @@
         <v>0.467891753427672</v>
       </c>
       <c r="O14" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="P14" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q14" t="n">
         <v>-11.9937203762948</v>
@@ -5276,19 +5282,19 @@
         <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E15" t="n">
         <v>118</v>
       </c>
       <c r="F15" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G15" t="n">
         <v>10</v>
@@ -5315,10 +5321,10 @@
         <v>1.16999257395365</v>
       </c>
       <c r="O15" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="P15" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q15" t="n">
         <v>-15.3456251937572</v>
@@ -5329,19 +5335,19 @@
         <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E16" t="n">
         <v>119</v>
       </c>
       <c r="F16" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G16" t="n">
         <v>10</v>
@@ -5368,10 +5374,10 @@
         <v>2.07831204044019</v>
       </c>
       <c r="O16" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="P16" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q16" t="n">
         <v>-17.5190097947542</v>
@@ -5382,19 +5388,19 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E17" t="n">
         <v>105</v>
       </c>
       <c r="F17" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G17" t="n">
         <v>10</v>
@@ -5421,10 +5427,10 @@
         <v>0.497953771284617</v>
       </c>
       <c r="O17" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="P17" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q17" t="n">
         <v>-11.041129503338</v>
@@ -5435,19 +5441,19 @@
         <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D18" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E18" t="n">
         <v>107</v>
       </c>
       <c r="F18" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G18" t="n">
         <v>10</v>
@@ -5474,10 +5480,10 @@
         <v>4.43396840287089</v>
       </c>
       <c r="O18" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="P18" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q18" t="n">
         <v>-18.2204815998601</v>
@@ -5488,19 +5494,19 @@
         <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E19" t="n">
         <v>104</v>
       </c>
       <c r="F19" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G19" t="n">
         <v>10</v>
@@ -5527,10 +5533,10 @@
         <v>3.88717659955913</v>
       </c>
       <c r="O19" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="P19" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q19" t="n">
         <v>-15.0109513907103</v>
@@ -5541,19 +5547,19 @@
         <v>44</v>
       </c>
       <c r="B20" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E20" t="n">
         <v>110</v>
       </c>
       <c r="F20" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G20" t="n">
         <v>10</v>
@@ -5580,10 +5586,10 @@
         <v>7.35345620753506</v>
       </c>
       <c r="O20" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="P20" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q20" t="n">
         <v>2945.25738777225</v>
@@ -5594,19 +5600,19 @@
         <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E21" t="n">
         <v>112</v>
       </c>
       <c r="F21" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G21" t="n">
         <v>10</v>
@@ -5633,10 +5639,10 @@
         <v>6.78166223855316</v>
       </c>
       <c r="O21" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="P21" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q21" t="n">
         <v>7611.23026629496</v>
@@ -5647,19 +5653,19 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C22" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D22" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E22" t="n">
         <v>112</v>
       </c>
       <c r="F22" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G22" t="n">
         <v>10</v>
@@ -5686,10 +5692,10 @@
         <v>0.153604263751372</v>
       </c>
       <c r="O22" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="P22" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q22" t="n">
         <v>-7.22642273648714</v>
@@ -5714,10 +5720,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -5729,40 +5735,40 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L1" t="s">
         <v>8</v>
       </c>
       <c r="M1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="N1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Q1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="R1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S1" t="s">
         <v>4</v>
@@ -5771,28 +5777,28 @@
         <v>5</v>
       </c>
       <c r="U1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="V1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="W1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="X1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Y1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Z1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AA1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AB1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="AC1" t="s">
         <v>6</v>
@@ -5801,7 +5807,7 @@
         <v>7</v>
       </c>
       <c r="AE1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="AF1" t="s">
         <v>9</v>
@@ -5818,19 +5824,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F2" t="n">
         <v>109</v>
       </c>
       <c r="G2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H2" t="n">
         <v>21</v>
@@ -5872,7 +5878,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="V2" t="n">
         <v>26279.3111838289</v>
@@ -5902,13 +5908,13 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AF2" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="AG2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3">
@@ -5919,19 +5925,19 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F3" t="n">
         <v>107</v>
       </c>
       <c r="G3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H3" t="n">
         <v>10</v>
@@ -5973,7 +5979,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="V3" t="n">
         <v>27.5409871059401</v>
@@ -6003,13 +6009,13 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AF3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="AG3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
@@ -6020,19 +6026,19 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F4" t="n">
         <v>109</v>
       </c>
       <c r="G4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H4" t="n">
         <v>21</v>
@@ -6074,7 +6080,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="V4" t="n">
         <v>22964.1795668562</v>
@@ -6104,13 +6110,13 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AF4" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="AG4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5">
@@ -6121,19 +6127,19 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F5" t="n">
         <v>117</v>
       </c>
       <c r="G5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H5" t="n">
         <v>10</v>
@@ -6175,7 +6181,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="V5" t="n">
         <v>19.9613638077195</v>
@@ -6205,13 +6211,13 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AF5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="AG5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6">
@@ -6222,19 +6228,19 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F6" t="n">
         <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H6" t="n">
         <v>10</v>
@@ -6276,7 +6282,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="V6" t="n">
         <v>34.4535742748423</v>
@@ -6306,13 +6312,13 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE6" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AF6" t="s">
         <v>14</v>
       </c>
       <c r="AG6" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7">
@@ -6323,19 +6329,19 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F7" t="n">
         <v>52</v>
       </c>
       <c r="G7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H7" t="n">
         <v>10</v>
@@ -6377,7 +6383,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="V7" t="n">
         <v>34.5402632125403</v>
@@ -6407,13 +6413,13 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AF7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="AG7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8">
@@ -6424,19 +6430,19 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D8" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E8" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F8" t="n">
         <v>88</v>
       </c>
       <c r="G8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H8" t="n">
         <v>10</v>
@@ -6478,7 +6484,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="V8" t="n">
         <v>34.7056967349958</v>
@@ -6508,13 +6514,13 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AF8" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="AG8" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
@@ -6525,19 +6531,19 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D9" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E9" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F9" t="n">
         <v>117</v>
       </c>
       <c r="G9" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H9" t="n">
         <v>10</v>
@@ -6579,7 +6585,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="V9" t="n">
         <v>34.7216161265214</v>
@@ -6609,13 +6615,13 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE9" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AF9" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="AG9" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10">
@@ -6626,19 +6632,19 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D10" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E10" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F10" t="n">
         <v>151</v>
       </c>
       <c r="G10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H10" t="n">
         <v>10</v>
@@ -6680,7 +6686,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="V10" t="n">
         <v>34.9312785088092</v>
@@ -6710,13 +6716,13 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE10" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AF10" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="AG10" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11">
@@ -6727,19 +6733,19 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D11" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F11" t="n">
         <v>205</v>
       </c>
       <c r="G11" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H11" t="n">
         <v>10</v>
@@ -6781,7 +6787,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="V11" t="n">
         <v>34.9210556345325</v>
@@ -6811,13 +6817,13 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE11" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AF11" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="AG11" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12">
@@ -6828,19 +6834,19 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D12" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E12" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F12" t="n">
         <v>112</v>
       </c>
       <c r="G12" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H12" t="n">
         <v>10</v>
@@ -6882,7 +6888,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U12" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="V12" t="n">
         <v>34.5405252704206</v>
@@ -6912,13 +6918,13 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE12" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AF12" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="AG12" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13">
@@ -6929,19 +6935,19 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D13" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E13" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F13" t="n">
         <v>118</v>
       </c>
       <c r="G13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H13" t="n">
         <v>10</v>
@@ -6983,7 +6989,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U13" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="V13" t="n">
         <v>26.0369761373282</v>
@@ -7013,13 +7019,13 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE13" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AF13" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="AG13" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
@@ -7030,19 +7036,19 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D14" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E14" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F14" t="n">
         <v>106</v>
       </c>
       <c r="G14" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H14" t="n">
         <v>10</v>
@@ -7084,7 +7090,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U14" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="V14" t="n">
         <v>18.5845232915187</v>
@@ -7114,13 +7120,13 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE14" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AF14" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="AG14" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15">
@@ -7131,19 +7137,19 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D15" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E15" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F15" t="n">
         <v>116</v>
       </c>
       <c r="G15" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H15" t="n">
         <v>10</v>
@@ -7185,7 +7191,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U15" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="V15" t="n">
         <v>30.1666839842986</v>
@@ -7215,13 +7221,13 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE15" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AF15" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="AG15" t="s">
-        <v>123</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16">
@@ -7232,7 +7238,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
@@ -7244,7 +7250,7 @@
         <v>117</v>
       </c>
       <c r="G16" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H16" t="n">
         <v>10</v>
@@ -7286,7 +7292,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U16" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="V16" t="n">
         <v>25.8669946989326</v>
@@ -7316,13 +7322,13 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE16" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AF16" t="s">
         <v>14</v>
       </c>
       <c r="AG16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -7333,19 +7339,19 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F17" t="n">
         <v>115</v>
       </c>
       <c r="G17" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H17" t="n">
         <v>10</v>
@@ -7387,7 +7393,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U17" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="V17" t="n">
         <v>23.3591530492557</v>
@@ -7417,13 +7423,13 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE17" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AF17" t="s">
         <v>14</v>
       </c>
       <c r="AG17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -7434,19 +7440,19 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F18" t="n">
         <v>136</v>
       </c>
       <c r="G18" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H18" t="n">
         <v>10</v>
@@ -7488,7 +7494,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U18" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="V18" t="n">
         <v>17.8179403525011</v>
@@ -7518,13 +7524,13 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE18" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AF18" t="s">
         <v>14</v>
       </c>
       <c r="AG18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
@@ -7535,19 +7541,19 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F19" t="n">
         <v>120</v>
       </c>
       <c r="G19" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H19" t="n">
         <v>10</v>
@@ -7589,7 +7595,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U19" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="V19" t="n">
         <v>17.3085515664883</v>
@@ -7619,13 +7625,13 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE19" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AF19" t="s">
         <v>14</v>
       </c>
       <c r="AG19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
@@ -7636,19 +7642,19 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F20" t="n">
         <v>121</v>
       </c>
       <c r="G20" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H20" t="n">
         <v>10</v>
@@ -7690,7 +7696,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U20" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="V20" t="n">
         <v>31.2510582341318</v>
@@ -7720,13 +7726,13 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE20" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AF20" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="AG20" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21">
@@ -7737,19 +7743,19 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F21" t="n">
         <v>117</v>
       </c>
       <c r="G21" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H21" t="n">
         <v>10</v>
@@ -7791,7 +7797,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U21" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="V21" t="n">
         <v>33.2589548003601</v>
@@ -7821,13 +7827,13 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE21" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AF21" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="AG21" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22">
@@ -7838,19 +7844,19 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E22" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F22" t="n">
         <v>119</v>
       </c>
       <c r="G22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H22" t="n">
         <v>10</v>
@@ -7892,7 +7898,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U22" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="V22" t="n">
         <v>25.4276090518357</v>
@@ -7922,13 +7928,13 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE22" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AF22" t="s">
         <v>14</v>
       </c>
       <c r="AG22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
@@ -7939,19 +7945,19 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E23" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F23" t="n">
         <v>120</v>
       </c>
       <c r="G23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H23" t="n">
         <v>10</v>
@@ -7993,7 +7999,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U23" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="V23" t="n">
         <v>21.9215278407351</v>
@@ -8023,13 +8029,13 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE23" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AF23" t="s">
         <v>14</v>
       </c>
       <c r="AG23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
@@ -8040,19 +8046,19 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D24" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E24" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F24" t="n">
         <v>118</v>
       </c>
       <c r="G24" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H24" t="n">
         <v>10</v>
@@ -8094,7 +8100,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U24" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="V24" t="n">
         <v>22.0200313740861</v>
@@ -8124,13 +8130,13 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE24" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AF24" t="s">
         <v>14</v>
       </c>
       <c r="AG24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -8141,19 +8147,19 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D25" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F25" t="n">
         <v>110</v>
       </c>
       <c r="G25" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H25" t="n">
         <v>10</v>
@@ -8195,7 +8201,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U25" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="V25" t="n">
         <v>32.73092488937</v>
@@ -8225,13 +8231,13 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE25" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AF25" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="AG25" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26">
@@ -8242,19 +8248,19 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D26" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E26" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F26" t="n">
         <v>106</v>
       </c>
       <c r="G26" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H26" t="n">
         <v>10</v>
@@ -8296,7 +8302,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U26" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="V26" t="n">
         <v>19.1808820466015</v>
@@ -8326,13 +8332,13 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE26" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AF26" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="AG26" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27">
@@ -8343,19 +8349,19 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D27" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E27" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F27" t="n">
         <v>107</v>
       </c>
       <c r="G27" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H27" t="n">
         <v>10</v>
@@ -8397,7 +8403,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U27" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="V27" t="n">
         <v>36.476192883145</v>
@@ -8427,13 +8433,13 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE27" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AF27" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="AG27" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28">
@@ -8444,19 +8450,19 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D28" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E28" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F28" t="n">
         <v>113</v>
       </c>
       <c r="G28" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H28" t="n">
         <v>10</v>
@@ -8498,7 +8504,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U28" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="V28" t="n">
         <v>26.8876292603891</v>
@@ -8528,13 +8534,13 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE28" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AF28" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="AG28" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29">
@@ -8545,19 +8551,19 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D29" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E29" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F29" t="n">
         <v>112</v>
       </c>
       <c r="G29" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H29" t="n">
         <v>10</v>
@@ -8599,7 +8605,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U29" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="V29" t="n">
         <v>33.9041865695402</v>
@@ -8629,13 +8635,13 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE29" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AF29" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="AG29" t="s">
-        <v>123</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30">
@@ -8646,19 +8652,19 @@
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E30" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F30" t="n">
         <v>115</v>
       </c>
       <c r="G30" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H30" t="n">
         <v>10</v>
@@ -8700,7 +8706,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U30" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="V30" t="n">
         <v>32.787340014492</v>
@@ -8730,13 +8736,13 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE30" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AF30" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="AG30" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31">
@@ -8747,19 +8753,19 @@
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D31" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E31" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F31" t="n">
         <v>113</v>
       </c>
       <c r="G31" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H31" t="n">
         <v>10</v>
@@ -8801,7 +8807,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U31" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="V31" t="n">
         <v>25.946156818759</v>
@@ -8831,13 +8837,13 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE31" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AF31" t="s">
         <v>14</v>
       </c>
       <c r="AG31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32">
@@ -8848,19 +8854,19 @@
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D32" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E32" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F32" t="n">
         <v>118</v>
       </c>
       <c r="G32" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H32" t="n">
         <v>10</v>
@@ -8902,7 +8908,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="V32" t="n">
         <v>28.9393797885153</v>
@@ -8932,13 +8938,13 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE32" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AF32" t="s">
         <v>14</v>
       </c>
       <c r="AG32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33">
@@ -8949,19 +8955,19 @@
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D33" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E33" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F33" t="n">
         <v>110</v>
       </c>
       <c r="G33" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H33" t="n">
         <v>10</v>
@@ -9003,7 +9009,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U33" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="V33" t="n">
         <v>30.0286246250865</v>
@@ -9033,13 +9039,13 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE33" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AF33" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="AG33" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34">
@@ -9050,19 +9056,19 @@
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D34" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E34" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F34" t="n">
         <v>118</v>
       </c>
       <c r="G34" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H34" t="n">
         <v>10</v>
@@ -9104,7 +9110,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U34" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="V34" t="n">
         <v>25.4486055544655</v>
@@ -9134,13 +9140,13 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE34" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AF34" t="s">
         <v>14</v>
       </c>
       <c r="AG34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35">
@@ -9151,19 +9157,19 @@
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D35" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F35" t="n">
         <v>119</v>
       </c>
       <c r="G35" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H35" t="n">
         <v>10</v>
@@ -9205,7 +9211,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U35" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="V35" t="n">
         <v>23.1851776294492</v>
@@ -9235,13 +9241,13 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE35" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AF35" t="s">
         <v>14</v>
       </c>
       <c r="AG35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36">
@@ -9252,19 +9258,19 @@
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D36" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E36" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F36" t="n">
         <v>105</v>
       </c>
       <c r="G36" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H36" t="n">
         <v>10</v>
@@ -9306,7 +9312,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U36" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="V36" t="n">
         <v>29.9314365013387</v>
@@ -9336,13 +9342,13 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE36" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AF36" t="s">
         <v>14</v>
       </c>
       <c r="AG36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37">
@@ -9353,19 +9359,19 @@
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D37" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E37" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F37" t="n">
         <v>104</v>
       </c>
       <c r="G37" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H37" t="n">
         <v>10</v>
@@ -9407,7 +9413,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U37" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="V37" t="n">
         <v>30.5397779795214</v>
@@ -9437,13 +9443,13 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE37" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AF37" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="AG37" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38">
@@ -9454,19 +9460,19 @@
         <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D38" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E38" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F38" t="n">
         <v>108</v>
       </c>
       <c r="G38" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H38" t="n">
         <v>10</v>
@@ -9508,7 +9514,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U38" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="V38" t="n">
         <v>32.7050732637594</v>
@@ -9538,13 +9544,13 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE38" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AF38" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="AG38" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39">
@@ -9555,19 +9561,19 @@
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D39" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E39" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F39" t="n">
         <v>112</v>
       </c>
       <c r="G39" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H39" t="n">
         <v>10</v>
@@ -9609,7 +9615,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U39" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="V39" t="n">
         <v>25.9670675033959</v>
@@ -9639,13 +9645,13 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE39" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AF39" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="AG39" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40">
@@ -9656,19 +9662,19 @@
         <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D40" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E40" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F40" t="n">
         <v>120</v>
       </c>
       <c r="G40" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H40" t="n">
         <v>10</v>
@@ -9710,7 +9716,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U40" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="V40" t="n">
         <v>18.7777737561382</v>
@@ -9740,13 +9746,13 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE40" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AF40" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="AG40" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41">
@@ -9757,19 +9763,19 @@
         <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D41" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E41" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F41" t="n">
         <v>110</v>
       </c>
       <c r="G41" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H41" t="n">
         <v>10</v>
@@ -9811,7 +9817,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U41" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="V41" t="n">
         <v>35.8366269678088</v>
@@ -9841,13 +9847,13 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE41" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AF41" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="AG41" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42">
@@ -9858,19 +9864,19 @@
         <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D42" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E42" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F42" t="n">
         <v>120</v>
       </c>
       <c r="G42" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H42" t="n">
         <v>10</v>
@@ -9912,7 +9918,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U42" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="V42" t="n">
         <v>28.6952409662064</v>
@@ -9942,13 +9948,13 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE42" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AF42" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="AG42" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43">
@@ -9959,19 +9965,19 @@
         <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D43" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E43" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F43" t="n">
         <v>107</v>
       </c>
       <c r="G43" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H43" t="n">
         <v>10</v>
@@ -10013,7 +10019,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U43" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="V43" t="n">
         <v>22.4546438474577</v>
@@ -10043,13 +10049,13 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE43" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AF43" t="s">
         <v>14</v>
       </c>
       <c r="AG43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44">
@@ -10060,19 +10066,19 @@
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D44" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E44" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F44" t="n">
         <v>104</v>
       </c>
       <c r="G44" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H44" t="n">
         <v>10</v>
@@ -10114,7 +10120,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U44" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="V44" t="n">
         <v>25.7971448931726</v>
@@ -10144,13 +10150,13 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE44" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AF44" t="s">
         <v>14</v>
       </c>
       <c r="AG44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45">
@@ -10161,19 +10167,19 @@
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D45" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E45" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F45" t="n">
         <v>110</v>
       </c>
       <c r="G45" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H45" t="n">
         <v>10</v>
@@ -10215,7 +10221,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U45" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="V45" t="n">
         <v>3108.70940134766</v>
@@ -10245,13 +10251,13 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE45" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AF45" t="s">
         <v>14</v>
       </c>
       <c r="AG45" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46">
@@ -10262,19 +10268,19 @@
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D46" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E46" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F46" t="n">
         <v>112</v>
       </c>
       <c r="G46" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H46" t="n">
         <v>10</v>
@@ -10316,7 +10322,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U46" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="V46" t="n">
         <v>7967.99353622756</v>
@@ -10346,13 +10352,13 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE46" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AF46" t="s">
         <v>14</v>
       </c>
       <c r="AG46" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -10371,10 +10377,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -10386,31 +10392,31 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1" t="s">
         <v>66</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>67</v>
       </c>
-      <c r="J1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L1" t="s">
-        <v>63</v>
-      </c>
-      <c r="M1" t="s">
-        <v>64</v>
-      </c>
       <c r="N1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O1" t="s">
         <v>9</v>
@@ -10419,19 +10425,19 @@
         <v>10</v>
       </c>
       <c r="Q1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="R1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="S1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="T1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="U1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2">
@@ -10439,19 +10445,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E2" t="n">
         <v>52</v>
       </c>
       <c r="F2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G2" t="n">
         <v>10</v>
@@ -10478,10 +10484,10 @@
         <v>0.11823964696953</v>
       </c>
       <c r="O2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="P2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q2" t="n">
         <v>-6.61565039173032</v>
@@ -10504,19 +10510,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E3" t="n">
         <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G3" t="n">
         <v>10</v>
@@ -10543,10 +10549,10 @@
         <v>0.069479744887368</v>
       </c>
       <c r="O3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="P3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q3" t="n">
         <v>-6.45679811893664</v>
@@ -10569,19 +10575,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E4" t="n">
         <v>117</v>
       </c>
       <c r="F4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G4" t="n">
         <v>10</v>
@@ -10608,10 +10614,10 @@
         <v>0.058657813968755</v>
       </c>
       <c r="O4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="P4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q4" t="n">
         <v>-6.44151203007266</v>
@@ -10634,19 +10640,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E5" t="n">
         <v>151</v>
       </c>
       <c r="F5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G5" t="n">
         <v>10</v>
@@ -10673,10 +10679,10 @@
         <v>0.0416842918117132</v>
       </c>
       <c r="O5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="P5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q5" t="n">
         <v>-6.24019040280271</v>
@@ -10699,19 +10705,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E6" t="n">
         <v>205</v>
       </c>
       <c r="F6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G6" t="n">
         <v>10</v>
@@ -10738,10 +10744,10 @@
         <v>0.029770403940384</v>
       </c>
       <c r="O6" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="P6" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q6" t="n">
         <v>-6.25000659234659</v>
@@ -10764,19 +10770,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E7" t="n">
         <v>112</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G7" t="n">
         <v>10</v>
@@ -10803,10 +10809,10 @@
         <v>0.0484856644327174</v>
       </c>
       <c r="O7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="P7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q7" t="n">
         <v>-6.61539875899423</v>
@@ -10829,19 +10835,19 @@
         <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D8" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E8" t="n">
         <v>108</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G8" t="n">
         <v>10</v>
@@ -10868,10 +10874,10 @@
         <v>0.0497811794974226</v>
       </c>
       <c r="O8" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="P8" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q8" t="n">
         <v>-8.3778331104737</v>
@@ -10905,10 +10911,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -10920,31 +10926,31 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1" t="s">
         <v>66</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>67</v>
       </c>
-      <c r="J1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L1" t="s">
-        <v>63</v>
-      </c>
-      <c r="M1" t="s">
-        <v>64</v>
-      </c>
       <c r="N1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O1" t="s">
         <v>9</v>
@@ -10953,22 +10959,22 @@
         <v>10</v>
       </c>
       <c r="Q1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="R1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="S1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="T1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="U1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="V1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2">
@@ -10976,19 +10982,19 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E2" t="n">
         <v>112</v>
       </c>
       <c r="F2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G2" t="n">
         <v>10</v>
@@ -11015,10 +11021,10 @@
         <v>0.0484856644327174</v>
       </c>
       <c r="O2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="P2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q2" t="n">
         <v>-6.61539875899423</v>
@@ -11044,19 +11050,19 @@
         <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E3" t="n">
         <v>108</v>
       </c>
       <c r="F3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G3" t="n">
         <v>10</v>
@@ -11083,10 +11089,10 @@
         <v>0.0497811794974226</v>
       </c>
       <c r="O3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="P3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q3" t="n">
         <v>-8.3778331104737</v>
@@ -11123,10 +11129,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -11138,31 +11144,31 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1" t="s">
         <v>66</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>67</v>
       </c>
-      <c r="J1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L1" t="s">
-        <v>63</v>
-      </c>
-      <c r="M1" t="s">
-        <v>64</v>
-      </c>
       <c r="N1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O1" t="s">
         <v>9</v>
@@ -11171,25 +11177,25 @@
         <v>10</v>
       </c>
       <c r="Q1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="R1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="S1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="T1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="U1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="V1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="W1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2">
@@ -11197,19 +11203,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E2" t="n">
         <v>52</v>
       </c>
       <c r="F2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G2" t="n">
         <v>10</v>
@@ -11236,10 +11242,10 @@
         <v>0.11823964696953</v>
       </c>
       <c r="O2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="P2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q2" t="n">
         <v>-6.61565039173032</v>
@@ -11268,19 +11274,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E3" t="n">
         <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G3" t="n">
         <v>10</v>
@@ -11307,10 +11313,10 @@
         <v>0.069479744887368</v>
       </c>
       <c r="O3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="P3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q3" t="n">
         <v>-6.45679811893664</v>
@@ -11339,19 +11345,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E4" t="n">
         <v>117</v>
       </c>
       <c r="F4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G4" t="n">
         <v>10</v>
@@ -11378,10 +11384,10 @@
         <v>0.058657813968755</v>
       </c>
       <c r="O4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="P4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q4" t="n">
         <v>-6.44151203007266</v>
@@ -11410,19 +11416,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E5" t="n">
         <v>151</v>
       </c>
       <c r="F5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G5" t="n">
         <v>10</v>
@@ -11449,10 +11455,10 @@
         <v>0.0416842918117132</v>
       </c>
       <c r="O5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="P5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q5" t="n">
         <v>-6.24019040280271</v>
@@ -11481,19 +11487,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E6" t="n">
         <v>205</v>
       </c>
       <c r="F6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G6" t="n">
         <v>10</v>
@@ -11520,10 +11526,10 @@
         <v>0.029770403940384</v>
       </c>
       <c r="O6" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="P6" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q6" t="n">
         <v>-6.25000659234659</v>
@@ -11563,10 +11569,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -11578,31 +11584,31 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1" t="s">
         <v>66</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>67</v>
       </c>
-      <c r="J1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L1" t="s">
-        <v>63</v>
-      </c>
-      <c r="M1" t="s">
-        <v>64</v>
-      </c>
       <c r="N1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O1" t="s">
         <v>9</v>
@@ -11611,28 +11617,28 @@
         <v>10</v>
       </c>
       <c r="Q1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="R1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="S1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="T1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="U1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="V1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="W1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="X1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2">
@@ -11640,19 +11646,19 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E2" t="n">
         <v>112</v>
       </c>
       <c r="F2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G2" t="n">
         <v>10</v>
@@ -11679,10 +11685,10 @@
         <v>0.0484856644327174</v>
       </c>
       <c r="O2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="P2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q2" t="n">
         <v>-6.61539875899423</v>
@@ -11714,19 +11720,19 @@
         <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E3" t="n">
         <v>108</v>
       </c>
       <c r="F3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G3" t="n">
         <v>10</v>
@@ -11753,10 +11759,10 @@
         <v>0.0497811794974226</v>
       </c>
       <c r="O3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="P3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q3" t="n">
         <v>-8.3778331104737</v>
@@ -11799,51 +11805,51 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="I1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="J1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="N1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B2" t="n">
         <v>-3.07</v>
@@ -11887,7 +11893,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B3" t="n">
         <v>-8.25</v>
@@ -11931,7 +11937,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B4" t="n">
         <v>-5.014</v>
@@ -11975,7 +11981,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B5" t="n">
         <v>-42.21</v>
@@ -12033,10 +12039,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -12048,31 +12054,31 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1" t="s">
         <v>66</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>67</v>
       </c>
-      <c r="J1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L1" t="s">
-        <v>63</v>
-      </c>
-      <c r="M1" t="s">
-        <v>64</v>
-      </c>
       <c r="N1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O1" t="s">
         <v>9</v>
@@ -12081,34 +12087,34 @@
         <v>10</v>
       </c>
       <c r="Q1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="R1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="S1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="T1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="U1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="V1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="W1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="X1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Y1" t="s">
         <v>4</v>
       </c>
       <c r="Z1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2">
@@ -12116,19 +12122,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E2" t="n">
         <v>52</v>
       </c>
       <c r="F2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G2" t="n">
         <v>10</v>
@@ -12155,10 +12161,10 @@
         <v>0.11823964696953</v>
       </c>
       <c r="O2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="P2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q2" t="n">
         <v>-6.61565039173032</v>
@@ -12196,19 +12202,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E3" t="n">
         <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G3" t="n">
         <v>10</v>
@@ -12235,10 +12241,10 @@
         <v>0.069479744887368</v>
       </c>
       <c r="O3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="P3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q3" t="n">
         <v>-6.45679811893664</v>
@@ -12276,19 +12282,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E4" t="n">
         <v>117</v>
       </c>
       <c r="F4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G4" t="n">
         <v>10</v>
@@ -12315,10 +12321,10 @@
         <v>0.058657813968755</v>
       </c>
       <c r="O4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="P4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q4" t="n">
         <v>-6.44151203007266</v>
@@ -12356,19 +12362,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E5" t="n">
         <v>151</v>
       </c>
       <c r="F5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G5" t="n">
         <v>10</v>
@@ -12395,10 +12401,10 @@
         <v>0.0416842918117132</v>
       </c>
       <c r="O5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="P5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q5" t="n">
         <v>-6.24019040280271</v>
@@ -12436,19 +12442,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E6" t="n">
         <v>205</v>
       </c>
       <c r="F6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G6" t="n">
         <v>10</v>
@@ -12475,10 +12481,10 @@
         <v>0.029770403940384</v>
       </c>
       <c r="O6" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="P6" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q6" t="n">
         <v>-6.25000659234659</v>
@@ -12516,19 +12522,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E7" t="n">
         <v>112</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G7" t="n">
         <v>10</v>
@@ -12555,10 +12561,10 @@
         <v>0.0484856644327174</v>
       </c>
       <c r="O7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="P7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q7" t="n">
         <v>-6.61539875899423</v>
@@ -12596,19 +12602,19 @@
         <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D8" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E8" t="n">
         <v>108</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G8" t="n">
         <v>10</v>
@@ -12635,10 +12641,10 @@
         <v>0.0497811794974226</v>
       </c>
       <c r="O8" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="P8" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q8" t="n">
         <v>-8.3778331104737</v>
@@ -12687,10 +12693,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -12702,31 +12708,31 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1" t="s">
         <v>66</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>67</v>
       </c>
-      <c r="J1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L1" t="s">
-        <v>63</v>
-      </c>
-      <c r="M1" t="s">
-        <v>64</v>
-      </c>
       <c r="N1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O1" t="s">
         <v>9</v>
@@ -12735,37 +12741,37 @@
         <v>10</v>
       </c>
       <c r="Q1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="R1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="S1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="T1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="U1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="V1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="W1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="X1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Y1" t="s">
         <v>4</v>
       </c>
       <c r="Z1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AA1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2">
@@ -12773,19 +12779,19 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E2" t="n">
         <v>112</v>
       </c>
       <c r="F2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G2" t="n">
         <v>10</v>
@@ -12812,10 +12818,10 @@
         <v>0.0484856644327174</v>
       </c>
       <c r="O2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="P2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q2" t="n">
         <v>-6.61539875899423</v>
@@ -12856,19 +12862,19 @@
         <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E3" t="n">
         <v>108</v>
       </c>
       <c r="F3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G3" t="n">
         <v>10</v>
@@ -12895,10 +12901,10 @@
         <v>0.0497811794974226</v>
       </c>
       <c r="O3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="P3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q3" t="n">
         <v>-8.3778331104737</v>

--- a/REH_modcarbs_corrected_data.xlsx
+++ b/REH_modcarbs_corrected_data.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="205">
   <si>
     <t xml:space="preserve">Run</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t xml:space="preserve">PercentCO3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">target.wgt.ug</t>
   </si>
   <si>
     <t xml:space="preserve">Do_not_use</t>
@@ -1002,16 +1005,19 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
         <v>117</v>
@@ -1031,22 +1037,25 @@
       <c r="I2" t="n">
         <v>21.5170573310642</v>
       </c>
-      <c r="J2" t="s">
-        <v>14</v>
+      <c r="J2" t="n">
+        <v>511.222321470478</v>
       </c>
       <c r="K2" t="s">
         <v>15</v>
       </c>
+      <c r="L2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" t="n">
         <v>115</v>
@@ -1066,22 +1075,25 @@
       <c r="I3" t="n">
         <v>18.2812299915221</v>
       </c>
-      <c r="J3" t="s">
-        <v>14</v>
+      <c r="J3" t="n">
+        <v>601.710060269534</v>
       </c>
       <c r="K3" t="s">
         <v>15</v>
       </c>
+      <c r="L3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" t="n">
         <v>136</v>
@@ -1101,22 +1113,25 @@
       <c r="I4" t="n">
         <v>14.6171316503826</v>
       </c>
-      <c r="J4" t="s">
-        <v>14</v>
+      <c r="J4" t="n">
+        <v>752.541624656714</v>
       </c>
       <c r="K4" t="s">
         <v>15</v>
       </c>
+      <c r="L4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" t="n">
         <v>120</v>
@@ -1136,22 +1151,25 @@
       <c r="I5" t="n">
         <v>15.9185942617332</v>
       </c>
-      <c r="J5" t="s">
-        <v>14</v>
+      <c r="J5" t="n">
+        <v>691.015790662053</v>
       </c>
       <c r="K5" t="s">
         <v>15</v>
       </c>
+      <c r="L5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="n">
         <v>121</v>
@@ -1171,22 +1189,25 @@
       <c r="I6" t="n">
         <v>40.9525272573645</v>
       </c>
-      <c r="J6" t="s">
-        <v>24</v>
+      <c r="J6" t="n">
+        <v>268.603691559033</v>
       </c>
       <c r="K6" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="L6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="n">
         <v>117</v>
@@ -1206,22 +1227,25 @@
       <c r="I7" t="n">
         <v>56.0914773601481</v>
       </c>
-      <c r="J7" t="s">
-        <v>24</v>
+      <c r="J7" t="n">
+        <v>196.108223881714</v>
       </c>
       <c r="K7" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="L7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" t="n">
         <v>119</v>
@@ -1241,22 +1265,25 @@
       <c r="I8" t="n">
         <v>19.2700265070868</v>
       </c>
-      <c r="J8" t="s">
-        <v>14</v>
+      <c r="J8" t="n">
+        <v>570.834710370255</v>
       </c>
       <c r="K8" t="s">
         <v>15</v>
       </c>
+      <c r="L8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9" t="n">
         <v>120</v>
@@ -1276,22 +1303,25 @@
       <c r="I9" t="n">
         <v>18.3188854015968</v>
       </c>
-      <c r="J9" t="s">
-        <v>14</v>
+      <c r="J9" t="n">
+        <v>600.473214327831</v>
       </c>
       <c r="K9" t="s">
         <v>15</v>
       </c>
+      <c r="L9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10" t="n">
         <v>118</v>
@@ -1311,22 +1341,25 @@
       <c r="I10" t="n">
         <v>17.0675126053166</v>
       </c>
-      <c r="J10" t="s">
-        <v>14</v>
+      <c r="J10" t="n">
+        <v>644.499304284881</v>
       </c>
       <c r="K10" t="s">
         <v>15</v>
       </c>
+      <c r="L10" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D11" t="n">
         <v>110</v>
@@ -1346,22 +1379,25 @@
       <c r="I11" t="n">
         <v>75.1624056418304</v>
       </c>
-      <c r="J11" t="s">
-        <v>24</v>
+      <c r="J11" t="n">
+        <v>146.349759644709</v>
       </c>
       <c r="K11" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="L11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D12" t="n">
         <v>115</v>
@@ -1381,22 +1417,25 @@
       <c r="I12" t="n">
         <v>29.1502503268499</v>
       </c>
-      <c r="J12" t="s">
-        <v>24</v>
+      <c r="J12" t="n">
+        <v>377.355250011972</v>
       </c>
       <c r="K12" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="L12" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" t="n">
         <v>113</v>
@@ -1416,22 +1455,25 @@
       <c r="I13" t="n">
         <v>20.4612354857934</v>
       </c>
-      <c r="J13" t="s">
-        <v>14</v>
+      <c r="J13" t="n">
+        <v>537.601945280259</v>
       </c>
       <c r="K13" t="s">
         <v>15</v>
       </c>
+      <c r="L13" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" t="n">
         <v>118</v>
@@ -1451,22 +1493,25 @@
       <c r="I14" t="n">
         <v>23.9576905269926</v>
       </c>
-      <c r="J14" t="s">
-        <v>14</v>
+      <c r="J14" t="n">
+        <v>459.142753664278</v>
       </c>
       <c r="K14" t="s">
         <v>15</v>
       </c>
+      <c r="L14" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" t="n">
         <v>110</v>
@@ -1486,22 +1531,25 @@
       <c r="I15" t="n">
         <v>33.5839364319092</v>
       </c>
-      <c r="J15" t="s">
-        <v>24</v>
+      <c r="J15" t="n">
+        <v>327.537542309916</v>
       </c>
       <c r="K15" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="L15" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D16" t="n">
         <v>118</v>
@@ -1521,22 +1569,25 @@
       <c r="I16" t="n">
         <v>18.1663039178315</v>
       </c>
-      <c r="J16" t="s">
-        <v>14</v>
+      <c r="J16" t="n">
+        <v>605.516678007501</v>
       </c>
       <c r="K16" t="s">
         <v>15</v>
       </c>
+      <c r="L16" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D17" t="n">
         <v>119</v>
@@ -1556,22 +1607,25 @@
       <c r="I17" t="n">
         <v>16.3410486381435</v>
       </c>
-      <c r="J17" t="s">
-        <v>14</v>
+      <c r="J17" t="n">
+        <v>673.151414183032</v>
       </c>
       <c r="K17" t="s">
         <v>15</v>
       </c>
+      <c r="L17" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D18" t="n">
         <v>105</v>
@@ -1591,22 +1645,25 @@
       <c r="I18" t="n">
         <v>26.2691119583595</v>
       </c>
-      <c r="J18" t="s">
-        <v>14</v>
+      <c r="J18" t="n">
+        <v>418.742743090693</v>
       </c>
       <c r="K18" t="s">
         <v>15</v>
       </c>
+      <c r="L18" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D19" t="n">
         <v>104</v>
@@ -1626,22 +1683,25 @@
       <c r="I19" t="n">
         <v>26.7516482155729</v>
       </c>
-      <c r="J19" t="s">
-        <v>24</v>
+      <c r="J19" t="n">
+        <v>411.189617602574</v>
       </c>
       <c r="K19" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="L19" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D20" t="n">
         <v>120</v>
@@ -1661,22 +1721,25 @@
       <c r="I20" t="n">
         <v>28.4493769277892</v>
       </c>
-      <c r="J20" t="s">
-        <v>24</v>
+      <c r="J20" t="n">
+        <v>386.65170164958</v>
       </c>
       <c r="K20" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="L20" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D21" t="n">
         <v>107</v>
@@ -1696,22 +1759,25 @@
       <c r="I21" t="n">
         <v>16.90071895253</v>
       </c>
-      <c r="J21" t="s">
-        <v>14</v>
+      <c r="J21" t="n">
+        <v>650.859885363239</v>
       </c>
       <c r="K21" t="s">
         <v>15</v>
       </c>
+      <c r="L21" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D22" t="n">
         <v>104</v>
@@ -1731,22 +1797,25 @@
       <c r="I22" t="n">
         <v>17.5507778635718</v>
       </c>
-      <c r="J22" t="s">
-        <v>14</v>
+      <c r="J22" t="n">
+        <v>626.752847395527</v>
       </c>
       <c r="K22" t="s">
         <v>15</v>
       </c>
+      <c r="L22" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D23" t="n">
         <v>110</v>
@@ -1766,22 +1835,25 @@
       <c r="I23" t="n">
         <v>16.0060562648395</v>
       </c>
-      <c r="J23" t="s">
-        <v>14</v>
+      <c r="J23" t="n">
+        <v>687.239868334321</v>
       </c>
       <c r="K23" t="s">
-        <v>59</v>
+        <v>15</v>
+      </c>
+      <c r="L23" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D24" t="n">
         <v>112</v>
@@ -1801,11 +1873,14 @@
       <c r="I24" t="n">
         <v>15.7747829154842</v>
       </c>
-      <c r="J24" t="s">
-        <v>14</v>
+      <c r="J24" t="n">
+        <v>697.315459676004</v>
       </c>
       <c r="K24" t="s">
-        <v>59</v>
+        <v>15</v>
+      </c>
+      <c r="L24" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1824,10 +1899,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1839,73 +1914,73 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" t="s">
         <v>69</v>
       </c>
-      <c r="I1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K1" t="s">
-        <v>77</v>
-      </c>
-      <c r="L1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M1" t="s">
-        <v>67</v>
-      </c>
-      <c r="N1" t="s">
-        <v>68</v>
-      </c>
       <c r="O1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="S1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="T1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="U1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y1" t="s">
         <v>4</v>
       </c>
       <c r="Z1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2">
@@ -1913,19 +1988,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E2" t="n">
         <v>52</v>
       </c>
       <c r="F2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G2" t="n">
         <v>10</v>
@@ -1952,10 +2027,10 @@
         <v>0.11823964696953</v>
       </c>
       <c r="O2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q2" t="n">
         <v>-6.61565039173032</v>
@@ -1999,19 +2074,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E3" t="n">
         <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G3" t="n">
         <v>10</v>
@@ -2038,10 +2113,10 @@
         <v>0.069479744887368</v>
       </c>
       <c r="O3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q3" t="n">
         <v>-6.45679811893664</v>
@@ -2085,19 +2160,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E4" t="n">
         <v>117</v>
       </c>
       <c r="F4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G4" t="n">
         <v>10</v>
@@ -2124,10 +2199,10 @@
         <v>0.058657813968755</v>
       </c>
       <c r="O4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q4" t="n">
         <v>-6.44151203007266</v>
@@ -2171,19 +2246,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E5" t="n">
         <v>151</v>
       </c>
       <c r="F5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G5" t="n">
         <v>10</v>
@@ -2210,10 +2285,10 @@
         <v>0.0416842918117132</v>
       </c>
       <c r="O5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q5" t="n">
         <v>-6.24019040280271</v>
@@ -2257,19 +2332,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E6" t="n">
         <v>205</v>
       </c>
       <c r="F6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G6" t="n">
         <v>10</v>
@@ -2296,10 +2371,10 @@
         <v>0.029770403940384</v>
       </c>
       <c r="O6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q6" t="n">
         <v>-6.25000659234659</v>
@@ -2354,10 +2429,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2369,76 +2444,76 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" t="s">
         <v>69</v>
       </c>
-      <c r="I1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K1" t="s">
-        <v>77</v>
-      </c>
-      <c r="L1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M1" t="s">
-        <v>67</v>
-      </c>
-      <c r="N1" t="s">
-        <v>68</v>
-      </c>
       <c r="O1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="S1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="T1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="U1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y1" t="s">
         <v>4</v>
       </c>
       <c r="Z1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2">
@@ -2446,19 +2521,19 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E2" t="n">
         <v>112</v>
       </c>
       <c r="F2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G2" t="n">
         <v>10</v>
@@ -2485,10 +2560,10 @@
         <v>0.0484856644327174</v>
       </c>
       <c r="O2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q2" t="n">
         <v>-6.61539875899423</v>
@@ -2535,19 +2610,19 @@
         <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E3" t="n">
         <v>108</v>
       </c>
       <c r="F3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G3" t="n">
         <v>10</v>
@@ -2574,10 +2649,10 @@
         <v>0.0497811794974226</v>
       </c>
       <c r="O3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q3" t="n">
         <v>-8.3778331104737</v>
@@ -2635,51 +2710,51 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B2" t="n">
         <v>-6.19</v>
@@ -2709,10 +2784,10 @@
         <v>0.0489494803182344</v>
       </c>
       <c r="K2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M2" t="n">
         <v>-9.51865873788451</v>
@@ -2723,7 +2798,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B3" t="n">
         <v>-9.65</v>
@@ -2753,10 +2828,10 @@
         <v>0.448826231705305</v>
       </c>
       <c r="K3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M3" t="n">
         <v>-6.63321988335722</v>
@@ -2767,7 +2842,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B4" t="n">
         <v>-23.2</v>
@@ -2797,10 +2872,10 @@
         <v>0.600440017078775</v>
       </c>
       <c r="K4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M4" t="n">
         <v>-23.2082372670235</v>
@@ -2811,7 +2886,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B5"/>
       <c r="C5" t="n">
@@ -2839,10 +2914,10 @@
         <v>0.736173369720873</v>
       </c>
       <c r="K5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M5" t="n">
         <v>-16.2843028786738</v>
@@ -2867,10 +2942,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2882,76 +2957,76 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" t="s">
         <v>69</v>
       </c>
-      <c r="I1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K1" t="s">
-        <v>77</v>
-      </c>
-      <c r="L1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M1" t="s">
-        <v>67</v>
-      </c>
-      <c r="N1" t="s">
-        <v>68</v>
-      </c>
       <c r="O1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="S1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="T1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="U1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y1" t="s">
         <v>4</v>
       </c>
       <c r="Z1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AD1" t="s">
         <v>6</v>
@@ -2962,19 +3037,19 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E2" t="n">
         <v>107</v>
       </c>
       <c r="F2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G2" t="n">
         <v>10</v>
@@ -3001,10 +3076,10 @@
         <v>0.0723214613137758</v>
       </c>
       <c r="O2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q2" t="n">
         <v>-13.336482427105</v>
@@ -3054,19 +3129,19 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E3" t="n">
         <v>117</v>
       </c>
       <c r="F3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G3" t="n">
         <v>10</v>
@@ -3093,10 +3168,10 @@
         <v>0.0608528491927163</v>
       </c>
       <c r="O3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q3" t="n">
         <v>-20.6145743758875</v>
@@ -3146,19 +3221,19 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E4" t="n">
         <v>52</v>
       </c>
       <c r="F4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G4" t="n">
         <v>10</v>
@@ -3185,10 +3260,10 @@
         <v>0.11823964696953</v>
       </c>
       <c r="O4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q4" t="n">
         <v>-6.61565039173032</v>
@@ -3238,19 +3313,19 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E5" t="n">
         <v>88</v>
       </c>
       <c r="F5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G5" t="n">
         <v>10</v>
@@ -3277,10 +3352,10 @@
         <v>0.069479744887368</v>
       </c>
       <c r="O5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q5" t="n">
         <v>-6.45679811893664</v>
@@ -3330,19 +3405,19 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E6" t="n">
         <v>117</v>
       </c>
       <c r="F6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G6" t="n">
         <v>10</v>
@@ -3369,10 +3444,10 @@
         <v>0.058657813968755</v>
       </c>
       <c r="O6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q6" t="n">
         <v>-6.44151203007266</v>
@@ -3422,19 +3497,19 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E7" t="n">
         <v>151</v>
       </c>
       <c r="F7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G7" t="n">
         <v>10</v>
@@ -3461,10 +3536,10 @@
         <v>0.0416842918117132</v>
       </c>
       <c r="O7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q7" t="n">
         <v>-6.24019040280271</v>
@@ -3514,19 +3589,19 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E8" t="n">
         <v>205</v>
       </c>
       <c r="F8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G8" t="n">
         <v>10</v>
@@ -3553,10 +3628,10 @@
         <v>0.029770403940384</v>
       </c>
       <c r="O8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q8" t="n">
         <v>-6.25000659234659</v>
@@ -3606,19 +3681,19 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E9" t="n">
         <v>112</v>
       </c>
       <c r="F9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G9" t="n">
         <v>10</v>
@@ -3645,10 +3720,10 @@
         <v>0.0484856644327174</v>
       </c>
       <c r="O9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q9" t="n">
         <v>-6.61539875899423</v>
@@ -3698,19 +3773,19 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E10" t="n">
         <v>118</v>
       </c>
       <c r="F10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G10" t="n">
         <v>10</v>
@@ -3737,10 +3812,10 @@
         <v>0.0562506297474913</v>
       </c>
       <c r="O10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q10" t="n">
         <v>-14.780661074361</v>
@@ -3790,19 +3865,19 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E11" t="n">
         <v>106</v>
       </c>
       <c r="F11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G11" t="n">
         <v>10</v>
@@ -3829,10 +3904,10 @@
         <v>0.0522644170937882</v>
       </c>
       <c r="O11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q11" t="n">
         <v>-21.9366416451239</v>
@@ -3882,19 +3957,19 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E12" t="n">
         <v>106</v>
       </c>
       <c r="F12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G12" t="n">
         <v>10</v>
@@ -3921,10 +3996,10 @@
         <v>0.058601670559922</v>
       </c>
       <c r="O12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q12" t="n">
         <v>-21.3640071376843</v>
@@ -3974,19 +4049,19 @@
         <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C13" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E13" t="n">
         <v>107</v>
       </c>
       <c r="F13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G13" t="n">
         <v>10</v>
@@ -4013,10 +4088,10 @@
         <v>0.053023947217282</v>
       </c>
       <c r="O13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q13" t="n">
         <v>-4.75673556250061</v>
@@ -4066,19 +4141,19 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C14" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E14" t="n">
         <v>113</v>
       </c>
       <c r="F14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G14" t="n">
         <v>10</v>
@@ -4105,10 +4180,10 @@
         <v>0.0578128615936899</v>
       </c>
       <c r="O14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q14" t="n">
         <v>-13.9638484964048</v>
@@ -4158,19 +4233,19 @@
         <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C15" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E15" t="n">
         <v>108</v>
       </c>
       <c r="F15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G15" t="n">
         <v>10</v>
@@ -4197,10 +4272,10 @@
         <v>0.0497811794974226</v>
       </c>
       <c r="O15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q15" t="n">
         <v>-8.3778331104737</v>
@@ -4250,19 +4325,19 @@
         <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C16" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E16" t="n">
         <v>112</v>
       </c>
       <c r="F16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G16" t="n">
         <v>10</v>
@@ -4289,10 +4364,10 @@
         <v>0.0676721462830187</v>
       </c>
       <c r="O16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q16" t="n">
         <v>-14.8477886143131</v>
@@ -4342,19 +4417,19 @@
         <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C17" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E17" t="n">
         <v>120</v>
       </c>
       <c r="F17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G17" t="n">
         <v>10</v>
@@ -4381,10 +4456,10 @@
         <v>0.0559790913028057</v>
       </c>
       <c r="O17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q17" t="n">
         <v>-21.751079039265</v>
@@ -4434,19 +4509,19 @@
         <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C18" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E18" t="n">
         <v>110</v>
       </c>
       <c r="F18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G18" t="n">
         <v>10</v>
@@ -4473,10 +4548,10 @@
         <v>0.0483262886911655</v>
       </c>
       <c r="O18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q18" t="n">
         <v>-5.37085836992523</v>
@@ -4537,10 +4612,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -4552,40 +4627,40 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" t="s">
         <v>69</v>
       </c>
-      <c r="I1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K1" t="s">
-        <v>77</v>
-      </c>
-      <c r="L1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M1" t="s">
-        <v>67</v>
-      </c>
-      <c r="N1" t="s">
-        <v>68</v>
-      </c>
       <c r="O1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2">
@@ -4593,19 +4668,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E2" t="n">
         <v>109</v>
       </c>
       <c r="F2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G2" t="n">
         <v>21</v>
@@ -4632,10 +4707,10 @@
         <v>0.14227089849453</v>
       </c>
       <c r="O2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q2" t="n">
         <v>25194.0900337314</v>
@@ -4646,19 +4721,19 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E3" t="n">
         <v>109</v>
       </c>
       <c r="F3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G3" t="n">
         <v>21</v>
@@ -4685,10 +4760,10 @@
         <v>0.182779639616628</v>
       </c>
       <c r="O3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q3" t="n">
         <v>22010.8404471316</v>
@@ -4699,19 +4774,19 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E4" t="n">
         <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G4" t="n">
         <v>10</v>
@@ -4738,10 +4813,10 @@
         <v>0.224390782765381</v>
       </c>
       <c r="O4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q4" t="n">
         <v>-6.69889068411478</v>
@@ -4752,19 +4827,19 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E5" t="n">
         <v>116</v>
       </c>
       <c r="F5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G5" t="n">
         <v>10</v>
@@ -4791,10 +4866,10 @@
         <v>0.409544208407258</v>
       </c>
       <c r="O5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q5" t="n">
         <v>-10.8152405977371</v>
@@ -4805,19 +4880,19 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" t="n">
         <v>117</v>
       </c>
       <c r="F6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G6" t="n">
         <v>10</v>
@@ -4844,10 +4919,10 @@
         <v>0.642520631071262</v>
       </c>
       <c r="O6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q6" t="n">
         <v>-14.9438803386377</v>
@@ -4858,19 +4933,19 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E7" t="n">
         <v>115</v>
       </c>
       <c r="F7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G7" t="n">
         <v>10</v>
@@ -4897,10 +4972,10 @@
         <v>1.28662124305195</v>
       </c>
       <c r="O7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q7" t="n">
         <v>-17.3519554369898</v>
@@ -4911,19 +4986,19 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8" t="n">
         <v>136</v>
       </c>
       <c r="F8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G8" t="n">
         <v>10</v>
@@ -4950,10 +5025,10 @@
         <v>1.77775360821804</v>
       </c>
       <c r="O8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q8" t="n">
         <v>-22.6727285055154</v>
@@ -4964,19 +5039,19 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9" t="n">
         <v>120</v>
       </c>
       <c r="F9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G9" t="n">
         <v>10</v>
@@ -5003,10 +5078,10 @@
         <v>2.39988395308312</v>
       </c>
       <c r="O9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q9" t="n">
         <v>-23.1618528691431</v>
@@ -5017,19 +5092,19 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E10" t="n">
         <v>119</v>
       </c>
       <c r="F10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G10" t="n">
         <v>10</v>
@@ -5056,10 +5131,10 @@
         <v>0.880826127382131</v>
       </c>
       <c r="O10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q10" t="n">
         <v>-15.3657864169117</v>
@@ -5070,19 +5145,19 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E11" t="n">
         <v>120</v>
       </c>
       <c r="F11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G11" t="n">
         <v>10</v>
@@ -5109,10 +5184,10 @@
         <v>1.04465222166391</v>
       </c>
       <c r="O11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q11" t="n">
         <v>-18.7323892717368</v>
@@ -5123,19 +5198,19 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E12" t="n">
         <v>118</v>
       </c>
       <c r="F12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G12" t="n">
         <v>10</v>
@@ -5162,10 +5237,10 @@
         <v>1.63566588021416</v>
       </c>
       <c r="O12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q12" t="n">
         <v>-18.6378043900347</v>
@@ -5176,19 +5251,19 @@
         <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E13" t="n">
         <v>113</v>
       </c>
       <c r="F13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G13" t="n">
         <v>10</v>
@@ -5215,10 +5290,10 @@
         <v>0.85402152784676</v>
       </c>
       <c r="O13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q13" t="n">
         <v>-14.8678674334722</v>
@@ -5229,19 +5304,19 @@
         <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E14" t="n">
         <v>118</v>
       </c>
       <c r="F14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G14" t="n">
         <v>10</v>
@@ -5268,10 +5343,10 @@
         <v>0.467891753427672</v>
       </c>
       <c r="O14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q14" t="n">
         <v>-11.9937203762948</v>
@@ -5282,19 +5357,19 @@
         <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E15" t="n">
         <v>118</v>
       </c>
       <c r="F15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G15" t="n">
         <v>10</v>
@@ -5321,10 +5396,10 @@
         <v>1.16999257395365</v>
       </c>
       <c r="O15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q15" t="n">
         <v>-15.3456251937572</v>
@@ -5335,19 +5410,19 @@
         <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E16" t="n">
         <v>119</v>
       </c>
       <c r="F16" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G16" t="n">
         <v>10</v>
@@ -5374,10 +5449,10 @@
         <v>2.07831204044019</v>
       </c>
       <c r="O16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q16" t="n">
         <v>-17.5190097947542</v>
@@ -5388,19 +5463,19 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E17" t="n">
         <v>105</v>
       </c>
       <c r="F17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G17" t="n">
         <v>10</v>
@@ -5427,10 +5502,10 @@
         <v>0.497953771284617</v>
       </c>
       <c r="O17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q17" t="n">
         <v>-11.041129503338</v>
@@ -5441,19 +5516,19 @@
         <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E18" t="n">
         <v>107</v>
       </c>
       <c r="F18" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G18" t="n">
         <v>10</v>
@@ -5480,10 +5555,10 @@
         <v>4.43396840287089</v>
       </c>
       <c r="O18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q18" t="n">
         <v>-18.2204815998601</v>
@@ -5494,19 +5569,19 @@
         <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E19" t="n">
         <v>104</v>
       </c>
       <c r="F19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G19" t="n">
         <v>10</v>
@@ -5533,10 +5608,10 @@
         <v>3.88717659955913</v>
       </c>
       <c r="O19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q19" t="n">
         <v>-15.0109513907103</v>
@@ -5547,19 +5622,19 @@
         <v>44</v>
       </c>
       <c r="B20" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E20" t="n">
         <v>110</v>
       </c>
       <c r="F20" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G20" t="n">
         <v>10</v>
@@ -5586,10 +5661,10 @@
         <v>7.35345620753506</v>
       </c>
       <c r="O20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q20" t="n">
         <v>2945.25738777225</v>
@@ -5600,19 +5675,19 @@
         <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E21" t="n">
         <v>112</v>
       </c>
       <c r="F21" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G21" t="n">
         <v>10</v>
@@ -5639,10 +5714,10 @@
         <v>6.78166223855316</v>
       </c>
       <c r="O21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q21" t="n">
         <v>7611.23026629496</v>
@@ -5653,19 +5728,19 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C22" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E22" t="n">
         <v>112</v>
       </c>
       <c r="F22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G22" t="n">
         <v>10</v>
@@ -5692,10 +5767,10 @@
         <v>0.153604263751372</v>
       </c>
       <c r="O22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q22" t="n">
         <v>-7.22642273648714</v>
@@ -5720,10 +5795,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -5735,40 +5810,40 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L1" t="s">
         <v>8</v>
       </c>
       <c r="M1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S1" t="s">
         <v>4</v>
@@ -5777,28 +5852,28 @@
         <v>5</v>
       </c>
       <c r="U1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AC1" t="s">
         <v>6</v>
@@ -5807,36 +5882,39 @@
         <v>7</v>
       </c>
       <c r="AE1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AF1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH1" t="s">
         <v>9</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F2" t="n">
         <v>109</v>
       </c>
       <c r="G2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H2" t="n">
         <v>21</v>
@@ -5878,7 +5956,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="V2" t="n">
         <v>26279.3111838289</v>
@@ -5908,36 +5986,39 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG2" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>220.671040364953</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F3" t="n">
         <v>107</v>
       </c>
       <c r="G3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H3" t="n">
         <v>10</v>
@@ -5979,7 +6060,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="V3" t="n">
         <v>27.5409871059401</v>
@@ -6009,36 +6090,39 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG3" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>129.971786981424</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F4" t="n">
         <v>109</v>
       </c>
       <c r="G4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H4" t="n">
         <v>21</v>
@@ -6080,7 +6164,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="V4" t="n">
         <v>22964.1795668562</v>
@@ -6110,36 +6194,39 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG4" t="s">
-        <v>99</v>
+        <v>100</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>260.460329635832</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F5" t="n">
         <v>117</v>
       </c>
       <c r="G5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H5" t="n">
         <v>10</v>
@@ -6181,7 +6268,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="V5" t="n">
         <v>19.9613638077195</v>
@@ -6211,36 +6298,39 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG5" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>123.224578817136</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F6" t="n">
         <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H6" t="n">
         <v>10</v>
@@ -6282,7 +6372,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="V6" t="n">
         <v>34.4535742748423</v>
@@ -6312,36 +6402,39 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG6" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>78.5173715851937</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="n">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F7" t="n">
         <v>52</v>
       </c>
       <c r="G7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H7" t="n">
         <v>10</v>
@@ -6383,7 +6476,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="V7" t="n">
         <v>34.5402632125403</v>
@@ -6413,36 +6506,39 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG7" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>92.3382943779885</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" t="n">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F8" t="n">
         <v>88</v>
       </c>
       <c r="G8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H8" t="n">
         <v>10</v>
@@ -6484,7 +6580,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="V8" t="n">
         <v>34.7056967349958</v>
@@ -6514,36 +6610,39 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG8" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>103.450346800634</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="n">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F9" t="n">
         <v>117</v>
       </c>
       <c r="G9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H9" t="n">
         <v>10</v>
@@ -6585,7 +6684,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="V9" t="n">
         <v>34.7216161265214</v>
@@ -6615,36 +6714,39 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG9" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>119.476325482502</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" t="n">
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F10" t="n">
         <v>151</v>
       </c>
       <c r="G10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H10" t="n">
         <v>10</v>
@@ -6686,7 +6788,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="V10" t="n">
         <v>34.9312785088092</v>
@@ -6716,36 +6818,39 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG10" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>114.782372779188</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11" t="n">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F11" t="n">
         <v>205</v>
       </c>
       <c r="G11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H11" t="n">
         <v>10</v>
@@ -6787,7 +6892,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="V11" t="n">
         <v>34.9210556345325</v>
@@ -6817,36 +6922,39 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG11" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>115.130996470984</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="n">
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F12" t="n">
         <v>112</v>
       </c>
       <c r="G12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H12" t="n">
         <v>10</v>
@@ -6888,7 +6996,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="V12" t="n">
         <v>34.5405252704206</v>
@@ -6918,36 +7026,39 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG12" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>97.1780223657852</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="n">
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F13" t="n">
         <v>118</v>
       </c>
       <c r="G13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H13" t="n">
         <v>10</v>
@@ -6989,7 +7100,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="V13" t="n">
         <v>26.0369761373282</v>
@@ -7019,36 +7130,39 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG13" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>116.300532314829</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" t="n">
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F14" t="n">
         <v>106</v>
       </c>
       <c r="G14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H14" t="n">
         <v>10</v>
@@ -7090,7 +7204,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="V14" t="n">
         <v>18.5845232915187</v>
@@ -7120,36 +7234,39 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG14" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>98.1216257290048</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B15" t="n">
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F15" t="n">
         <v>116</v>
       </c>
       <c r="G15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H15" t="n">
         <v>10</v>
@@ -7191,7 +7308,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="V15" t="n">
         <v>30.1666839842986</v>
@@ -7221,36 +7338,39 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG15" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>426.862642146982</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B16" t="n">
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F16" t="n">
         <v>117</v>
       </c>
       <c r="G16" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H16" t="n">
         <v>10</v>
@@ -7292,7 +7412,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="V16" t="n">
         <v>25.8669946989326</v>
@@ -7322,36 +7442,39 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG16" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>511.222321470478</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B17" t="n">
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F17" t="n">
         <v>115</v>
       </c>
       <c r="G17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H17" t="n">
         <v>10</v>
@@ -7393,7 +7516,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="V17" t="n">
         <v>23.3591530492557</v>
@@ -7423,36 +7546,39 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG17" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>601.710060269534</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B18" t="n">
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F18" t="n">
         <v>136</v>
       </c>
       <c r="G18" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H18" t="n">
         <v>10</v>
@@ -7494,7 +7620,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U18" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="V18" t="n">
         <v>17.8179403525011</v>
@@ -7524,36 +7650,39 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG18" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>752.541624656714</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B19" t="n">
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F19" t="n">
         <v>120</v>
       </c>
       <c r="G19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H19" t="n">
         <v>10</v>
@@ -7595,7 +7724,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="V19" t="n">
         <v>17.3085515664883</v>
@@ -7625,36 +7754,39 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG19" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>691.015790662053</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B20" t="n">
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F20" t="n">
         <v>121</v>
       </c>
       <c r="G20" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H20" t="n">
         <v>10</v>
@@ -7696,7 +7828,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="V20" t="n">
         <v>31.2510582341318</v>
@@ -7726,36 +7858,39 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG20" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>268.603691559033</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B21" t="n">
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F21" t="n">
         <v>117</v>
       </c>
       <c r="G21" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H21" t="n">
         <v>10</v>
@@ -7797,7 +7932,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U21" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="V21" t="n">
         <v>33.2589548003601</v>
@@ -7827,36 +7962,39 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE21" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG21" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>196.108223881714</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B22" t="n">
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F22" t="n">
         <v>119</v>
       </c>
       <c r="G22" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H22" t="n">
         <v>10</v>
@@ -7898,7 +8036,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="V22" t="n">
         <v>25.4276090518357</v>
@@ -7928,36 +8066,39 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE22" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG22" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>570.834710370255</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B23" t="n">
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F23" t="n">
         <v>120</v>
       </c>
       <c r="G23" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H23" t="n">
         <v>10</v>
@@ -7999,7 +8140,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="V23" t="n">
         <v>21.9215278407351</v>
@@ -8029,36 +8170,39 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE23" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG23" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>600.473214327831</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B24" t="n">
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F24" t="n">
         <v>118</v>
       </c>
       <c r="G24" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H24" t="n">
         <v>10</v>
@@ -8100,7 +8244,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U24" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="V24" t="n">
         <v>22.0200313740861</v>
@@ -8130,36 +8274,39 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE24" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG24" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>644.499304284881</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B25" t="n">
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F25" t="n">
         <v>110</v>
       </c>
       <c r="G25" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H25" t="n">
         <v>10</v>
@@ -8201,7 +8348,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U25" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="V25" t="n">
         <v>32.73092488937</v>
@@ -8231,36 +8378,39 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE25" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG25" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>146.349759644709</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B26" t="n">
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D26" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E26" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F26" t="n">
         <v>106</v>
       </c>
       <c r="G26" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H26" t="n">
         <v>10</v>
@@ -8302,7 +8452,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="V26" t="n">
         <v>19.1808820466015</v>
@@ -8332,36 +8482,39 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE26" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG26" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>108.156128779698</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B27" t="n">
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D27" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E27" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F27" t="n">
         <v>107</v>
       </c>
       <c r="G27" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H27" t="n">
         <v>10</v>
@@ -8403,7 +8556,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U27" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="V27" t="n">
         <v>36.476192883145</v>
@@ -8433,36 +8586,39 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE27" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG27" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>100.27966681069</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B28" t="n">
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D28" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F28" t="n">
         <v>113</v>
       </c>
       <c r="G28" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H28" t="n">
         <v>10</v>
@@ -8504,7 +8660,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="V28" t="n">
         <v>26.8876292603891</v>
@@ -8534,36 +8690,39 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG28" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>113.986803777791</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B29" t="n">
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D29" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E29" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F29" t="n">
         <v>112</v>
       </c>
       <c r="G29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H29" t="n">
         <v>10</v>
@@ -8605,7 +8764,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U29" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="V29" t="n">
         <v>33.9041865695402</v>
@@ -8635,36 +8794,39 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG29" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>238.894238495357</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B30" t="n">
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F30" t="n">
         <v>115</v>
       </c>
       <c r="G30" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H30" t="n">
         <v>10</v>
@@ -8706,7 +8868,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U30" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="V30" t="n">
         <v>32.787340014492</v>
@@ -8736,36 +8898,39 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE30" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG30" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>377.355250011972</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B31" t="n">
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F31" t="n">
         <v>113</v>
       </c>
       <c r="G31" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H31" t="n">
         <v>10</v>
@@ -8807,7 +8972,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U31" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="V31" t="n">
         <v>25.946156818759</v>
@@ -8837,36 +9002,39 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE31" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG31" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>537.601945280259</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B32" t="n">
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F32" t="n">
         <v>118</v>
       </c>
       <c r="G32" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H32" t="n">
         <v>10</v>
@@ -8908,7 +9076,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="V32" t="n">
         <v>28.9393797885153</v>
@@ -8938,36 +9106,39 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG32" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>459.142753664278</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B33" t="n">
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F33" t="n">
         <v>110</v>
       </c>
       <c r="G33" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H33" t="n">
         <v>10</v>
@@ -9009,7 +9180,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U33" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="V33" t="n">
         <v>30.0286246250865</v>
@@ -9039,36 +9210,39 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE33" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG33" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>327.537542309916</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B34" t="n">
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="n">
         <v>118</v>
       </c>
       <c r="G34" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H34" t="n">
         <v>10</v>
@@ -9110,7 +9284,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U34" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="V34" t="n">
         <v>25.4486055544655</v>
@@ -9140,36 +9314,39 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE34" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG34" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>605.516678007501</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B35" t="n">
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F35" t="n">
         <v>119</v>
       </c>
       <c r="G35" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H35" t="n">
         <v>10</v>
@@ -9211,7 +9388,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U35" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="V35" t="n">
         <v>23.1851776294492</v>
@@ -9241,36 +9418,39 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE35" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG35" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>673.151414183032</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B36" t="n">
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F36" t="n">
         <v>105</v>
       </c>
       <c r="G36" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H36" t="n">
         <v>10</v>
@@ -9312,7 +9492,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U36" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="V36" t="n">
         <v>29.9314365013387</v>
@@ -9342,36 +9522,39 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE36" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG36" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>418.742743090693</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B37" t="n">
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F37" t="n">
         <v>104</v>
       </c>
       <c r="G37" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H37" t="n">
         <v>10</v>
@@ -9413,7 +9596,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U37" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="V37" t="n">
         <v>30.5397779795214</v>
@@ -9443,36 +9626,39 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE37" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF37" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG37" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>411.189617602574</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B38" t="n">
         <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D38" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E38" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F38" t="n">
         <v>108</v>
       </c>
       <c r="G38" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H38" t="n">
         <v>10</v>
@@ -9514,7 +9700,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U38" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="V38" t="n">
         <v>32.7050732637594</v>
@@ -9544,36 +9730,39 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE38" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF38" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG38" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>95.8700872006351</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B39" t="n">
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D39" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E39" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F39" t="n">
         <v>112</v>
       </c>
       <c r="G39" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H39" t="n">
         <v>10</v>
@@ -9615,7 +9804,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U39" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="V39" t="n">
         <v>25.9670675033959</v>
@@ -9645,36 +9834,39 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE39" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF39" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG39" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>128.843446332653</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B40" t="n">
         <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D40" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E40" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F40" t="n">
         <v>120</v>
       </c>
       <c r="G40" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H40" t="n">
         <v>10</v>
@@ -9716,7 +9908,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U40" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="V40" t="n">
         <v>18.7777737561382</v>
@@ -9746,36 +9938,39 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE40" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF40" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG40" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>117.786801952399</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B41" t="n">
         <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D41" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E41" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F41" t="n">
         <v>110</v>
       </c>
       <c r="G41" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H41" t="n">
         <v>10</v>
@@ -9817,7 +10012,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U41" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="V41" t="n">
         <v>35.8366269678088</v>
@@ -9847,36 +10042,39 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE41" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF41" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG41" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>95.1706313858795</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B42" t="n">
         <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D42" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F42" t="n">
         <v>120</v>
       </c>
       <c r="G42" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H42" t="n">
         <v>10</v>
@@ -9918,7 +10116,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U42" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="V42" t="n">
         <v>28.6952409662064</v>
@@ -9948,36 +10146,39 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE42" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG42" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>386.65170164958</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B43" t="n">
         <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F43" t="n">
         <v>107</v>
       </c>
       <c r="G43" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H43" t="n">
         <v>10</v>
@@ -10019,7 +10220,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U43" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="V43" t="n">
         <v>22.4546438474577</v>
@@ -10049,36 +10250,39 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE43" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG43" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>650.859885363239</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B44" t="n">
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F44" t="n">
         <v>104</v>
       </c>
       <c r="G44" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H44" t="n">
         <v>10</v>
@@ -10120,7 +10324,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U44" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="V44" t="n">
         <v>25.7971448931726</v>
@@ -10150,36 +10354,39 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE44" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG44" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>626.752847395527</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B45" t="n">
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D45" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F45" t="n">
         <v>110</v>
       </c>
       <c r="G45" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H45" t="n">
         <v>10</v>
@@ -10221,7 +10428,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U45" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="V45" t="n">
         <v>3108.70940134766</v>
@@ -10251,36 +10458,39 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE45" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF45" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG45" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>687.239868334321</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B46" t="n">
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D46" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F46" t="n">
         <v>112</v>
       </c>
       <c r="G46" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H46" t="n">
         <v>10</v>
@@ -10322,7 +10532,7 @@
         <v>0.220894897056872</v>
       </c>
       <c r="U46" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="V46" t="n">
         <v>7967.99353622756</v>
@@ -10352,13 +10562,16 @@
         <v>0.488096648417331</v>
       </c>
       <c r="AE46" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG46" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>697.315459676004</v>
       </c>
     </row>
   </sheetData>
@@ -10377,10 +10590,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -10392,52 +10605,52 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" t="s">
         <v>69</v>
       </c>
-      <c r="I1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K1" t="s">
-        <v>77</v>
-      </c>
-      <c r="L1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M1" t="s">
-        <v>67</v>
-      </c>
-      <c r="N1" t="s">
-        <v>68</v>
-      </c>
       <c r="O1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="S1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="T1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="U1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2">
@@ -10445,19 +10658,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E2" t="n">
         <v>52</v>
       </c>
       <c r="F2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G2" t="n">
         <v>10</v>
@@ -10484,10 +10697,10 @@
         <v>0.11823964696953</v>
       </c>
       <c r="O2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q2" t="n">
         <v>-6.61565039173032</v>
@@ -10510,19 +10723,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E3" t="n">
         <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G3" t="n">
         <v>10</v>
@@ -10549,10 +10762,10 @@
         <v>0.069479744887368</v>
       </c>
       <c r="O3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q3" t="n">
         <v>-6.45679811893664</v>
@@ -10575,19 +10788,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E4" t="n">
         <v>117</v>
       </c>
       <c r="F4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G4" t="n">
         <v>10</v>
@@ -10614,10 +10827,10 @@
         <v>0.058657813968755</v>
       </c>
       <c r="O4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q4" t="n">
         <v>-6.44151203007266</v>
@@ -10640,19 +10853,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E5" t="n">
         <v>151</v>
       </c>
       <c r="F5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G5" t="n">
         <v>10</v>
@@ -10679,10 +10892,10 @@
         <v>0.0416842918117132</v>
       </c>
       <c r="O5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q5" t="n">
         <v>-6.24019040280271</v>
@@ -10705,19 +10918,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E6" t="n">
         <v>205</v>
       </c>
       <c r="F6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G6" t="n">
         <v>10</v>
@@ -10744,10 +10957,10 @@
         <v>0.029770403940384</v>
       </c>
       <c r="O6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q6" t="n">
         <v>-6.25000659234659</v>
@@ -10770,19 +10983,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E7" t="n">
         <v>112</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G7" t="n">
         <v>10</v>
@@ -10809,10 +11022,10 @@
         <v>0.0484856644327174</v>
       </c>
       <c r="O7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q7" t="n">
         <v>-6.61539875899423</v>
@@ -10835,19 +11048,19 @@
         <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E8" t="n">
         <v>108</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G8" t="n">
         <v>10</v>
@@ -10874,10 +11087,10 @@
         <v>0.0497811794974226</v>
       </c>
       <c r="O8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q8" t="n">
         <v>-8.3778331104737</v>
@@ -10911,10 +11124,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -10926,55 +11139,55 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" t="s">
         <v>69</v>
       </c>
-      <c r="I1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K1" t="s">
-        <v>77</v>
-      </c>
-      <c r="L1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M1" t="s">
-        <v>67</v>
-      </c>
-      <c r="N1" t="s">
-        <v>68</v>
-      </c>
       <c r="O1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="S1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="T1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="U1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2">
@@ -10982,19 +11195,19 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E2" t="n">
         <v>112</v>
       </c>
       <c r="F2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G2" t="n">
         <v>10</v>
@@ -11021,10 +11234,10 @@
         <v>0.0484856644327174</v>
       </c>
       <c r="O2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q2" t="n">
         <v>-6.61539875899423</v>
@@ -11050,19 +11263,19 @@
         <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E3" t="n">
         <v>108</v>
       </c>
       <c r="F3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G3" t="n">
         <v>10</v>
@@ -11089,10 +11302,10 @@
         <v>0.0497811794974226</v>
       </c>
       <c r="O3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q3" t="n">
         <v>-8.3778331104737</v>
@@ -11129,10 +11342,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -11144,58 +11357,58 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" t="s">
         <v>69</v>
       </c>
-      <c r="I1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K1" t="s">
-        <v>77</v>
-      </c>
-      <c r="L1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M1" t="s">
-        <v>67</v>
-      </c>
-      <c r="N1" t="s">
-        <v>68</v>
-      </c>
       <c r="O1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="S1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="T1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="U1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2">
@@ -11203,19 +11416,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E2" t="n">
         <v>52</v>
       </c>
       <c r="F2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G2" t="n">
         <v>10</v>
@@ -11242,10 +11455,10 @@
         <v>0.11823964696953</v>
       </c>
       <c r="O2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q2" t="n">
         <v>-6.61565039173032</v>
@@ -11274,19 +11487,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E3" t="n">
         <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G3" t="n">
         <v>10</v>
@@ -11313,10 +11526,10 @@
         <v>0.069479744887368</v>
       </c>
       <c r="O3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q3" t="n">
         <v>-6.45679811893664</v>
@@ -11345,19 +11558,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E4" t="n">
         <v>117</v>
       </c>
       <c r="F4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G4" t="n">
         <v>10</v>
@@ -11384,10 +11597,10 @@
         <v>0.058657813968755</v>
       </c>
       <c r="O4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q4" t="n">
         <v>-6.44151203007266</v>
@@ -11416,19 +11629,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E5" t="n">
         <v>151</v>
       </c>
       <c r="F5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G5" t="n">
         <v>10</v>
@@ -11455,10 +11668,10 @@
         <v>0.0416842918117132</v>
       </c>
       <c r="O5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q5" t="n">
         <v>-6.24019040280271</v>
@@ -11487,19 +11700,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E6" t="n">
         <v>205</v>
       </c>
       <c r="F6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G6" t="n">
         <v>10</v>
@@ -11526,10 +11739,10 @@
         <v>0.029770403940384</v>
       </c>
       <c r="O6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q6" t="n">
         <v>-6.25000659234659</v>
@@ -11569,10 +11782,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -11584,61 +11797,61 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" t="s">
         <v>69</v>
       </c>
-      <c r="I1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K1" t="s">
-        <v>77</v>
-      </c>
-      <c r="L1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M1" t="s">
-        <v>67</v>
-      </c>
-      <c r="N1" t="s">
-        <v>68</v>
-      </c>
       <c r="O1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="S1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="T1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="U1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2">
@@ -11646,19 +11859,19 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E2" t="n">
         <v>112</v>
       </c>
       <c r="F2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G2" t="n">
         <v>10</v>
@@ -11685,10 +11898,10 @@
         <v>0.0484856644327174</v>
       </c>
       <c r="O2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q2" t="n">
         <v>-6.61539875899423</v>
@@ -11720,19 +11933,19 @@
         <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E3" t="n">
         <v>108</v>
       </c>
       <c r="F3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G3" t="n">
         <v>10</v>
@@ -11759,10 +11972,10 @@
         <v>0.0497811794974226</v>
       </c>
       <c r="O3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q3" t="n">
         <v>-8.3778331104737</v>
@@ -11805,51 +12018,51 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B2" t="n">
         <v>-3.07</v>
@@ -11893,7 +12106,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B3" t="n">
         <v>-8.25</v>
@@ -11937,7 +12150,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B4" t="n">
         <v>-5.014</v>
@@ -11981,7 +12194,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B5" t="n">
         <v>-42.21</v>
@@ -12039,10 +12252,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -12054,67 +12267,67 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" t="s">
         <v>69</v>
       </c>
-      <c r="I1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K1" t="s">
-        <v>77</v>
-      </c>
-      <c r="L1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M1" t="s">
-        <v>67</v>
-      </c>
-      <c r="N1" t="s">
-        <v>68</v>
-      </c>
       <c r="O1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="S1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="T1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="U1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y1" t="s">
         <v>4</v>
       </c>
       <c r="Z1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2">
@@ -12122,19 +12335,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E2" t="n">
         <v>52</v>
       </c>
       <c r="F2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G2" t="n">
         <v>10</v>
@@ -12161,10 +12374,10 @@
         <v>0.11823964696953</v>
       </c>
       <c r="O2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q2" t="n">
         <v>-6.61565039173032</v>
@@ -12202,19 +12415,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E3" t="n">
         <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G3" t="n">
         <v>10</v>
@@ -12241,10 +12454,10 @@
         <v>0.069479744887368</v>
       </c>
       <c r="O3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q3" t="n">
         <v>-6.45679811893664</v>
@@ -12282,19 +12495,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E4" t="n">
         <v>117</v>
       </c>
       <c r="F4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G4" t="n">
         <v>10</v>
@@ -12321,10 +12534,10 @@
         <v>0.058657813968755</v>
       </c>
       <c r="O4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q4" t="n">
         <v>-6.44151203007266</v>
@@ -12362,19 +12575,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E5" t="n">
         <v>151</v>
       </c>
       <c r="F5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G5" t="n">
         <v>10</v>
@@ -12401,10 +12614,10 @@
         <v>0.0416842918117132</v>
       </c>
       <c r="O5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q5" t="n">
         <v>-6.24019040280271</v>
@@ -12442,19 +12655,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E6" t="n">
         <v>205</v>
       </c>
       <c r="F6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G6" t="n">
         <v>10</v>
@@ -12481,10 +12694,10 @@
         <v>0.029770403940384</v>
       </c>
       <c r="O6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q6" t="n">
         <v>-6.25000659234659</v>
@@ -12522,19 +12735,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E7" t="n">
         <v>112</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G7" t="n">
         <v>10</v>
@@ -12561,10 +12774,10 @@
         <v>0.0484856644327174</v>
       </c>
       <c r="O7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q7" t="n">
         <v>-6.61539875899423</v>
@@ -12602,19 +12815,19 @@
         <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C8" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E8" t="n">
         <v>108</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G8" t="n">
         <v>10</v>
@@ -12641,10 +12854,10 @@
         <v>0.0497811794974226</v>
       </c>
       <c r="O8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q8" t="n">
         <v>-8.3778331104737</v>
@@ -12693,10 +12906,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -12708,70 +12921,70 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" t="s">
         <v>69</v>
       </c>
-      <c r="I1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K1" t="s">
-        <v>77</v>
-      </c>
-      <c r="L1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M1" t="s">
-        <v>67</v>
-      </c>
-      <c r="N1" t="s">
-        <v>68</v>
-      </c>
       <c r="O1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="S1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="T1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="U1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y1" t="s">
         <v>4</v>
       </c>
       <c r="Z1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2">
@@ -12779,19 +12992,19 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E2" t="n">
         <v>112</v>
       </c>
       <c r="F2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G2" t="n">
         <v>10</v>
@@ -12818,10 +13031,10 @@
         <v>0.0484856644327174</v>
       </c>
       <c r="O2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q2" t="n">
         <v>-6.61539875899423</v>
@@ -12862,19 +13075,19 @@
         <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E3" t="n">
         <v>108</v>
       </c>
       <c r="F3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G3" t="n">
         <v>10</v>
@@ -12901,10 +13114,10 @@
         <v>0.0497811794974226</v>
       </c>
       <c r="O3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q3" t="n">
         <v>-8.3778331104737</v>
